--- a/data/china_ie_partner/2017-08.xlsx
+++ b/data/china_ie_partner/2017-08.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Downloads/china_ie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jens/Documents/GitHub/ada-2020-project-milestone-p3-p3_lovela-data-science/data/china_ie_partner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FD5DBD-9C60-7E4A-84A6-1AF3FAA8AF08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F50767-7EE2-7649-9042-C2948DB318EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="260" yWindow="460" windowWidth="28260" windowHeight="16400" xr2:uid="{8F74DAF6-1138-2E45-873E-CC3CE452E3A4}"/>
   </bookViews>
@@ -36,669 +36,9 @@
     <t>进口</t>
   </si>
   <si>
-    <t>阿富汗</t>
-  </si>
-  <si>
-    <t>巴林</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>不丹</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>文莱</t>
-  </si>
-  <si>
-    <t>缅甸</t>
-  </si>
-  <si>
-    <t>柬埔寨</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>朝鲜</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>印度尼西亚</t>
-  </si>
-  <si>
-    <t>伊朗</t>
-  </si>
-  <si>
-    <t>伊拉克</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>约旦</t>
-  </si>
-  <si>
-    <t>科威特</t>
-  </si>
-  <si>
-    <t>老挝</t>
-  </si>
-  <si>
-    <t>黎巴嫩</t>
-  </si>
-  <si>
-    <t>马尔代夫</t>
-  </si>
-  <si>
-    <t>蒙古</t>
-  </si>
-  <si>
-    <t>阿曼</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>巴勒斯坦</t>
-  </si>
-  <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
-    <t>卡塔尔</t>
-  </si>
-  <si>
-    <t>沙特阿拉伯</t>
-  </si>
-  <si>
-    <t>新加坡</t>
-  </si>
-  <si>
-    <t>韩国</t>
-  </si>
-  <si>
-    <t>斯里兰卡</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>泰国</t>
-  </si>
-  <si>
-    <t>土耳其</t>
-  </si>
-  <si>
-    <t>阿联酋</t>
-  </si>
-  <si>
-    <t>也门</t>
-  </si>
-  <si>
-    <t>越南</t>
-  </si>
-  <si>
-    <t>中国</t>
-  </si>
-  <si>
-    <t>东帝汶</t>
-  </si>
-  <si>
-    <t>哈萨克斯坦</t>
-  </si>
-  <si>
-    <t>吉尔吉斯斯坦</t>
-  </si>
-  <si>
-    <t>塔吉克斯坦</t>
-  </si>
-  <si>
-    <t>土库曼斯坦</t>
-  </si>
-  <si>
-    <t>亚洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>非洲</t>
-  </si>
-  <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
-    <t>安哥拉</t>
-  </si>
-  <si>
-    <t>贝宁</t>
-  </si>
-  <si>
-    <t>博茨瓦纳</t>
-  </si>
-  <si>
-    <t>布隆迪</t>
-  </si>
-  <si>
-    <t>加那利群岛</t>
-  </si>
-  <si>
-    <t>佛得角</t>
-  </si>
-  <si>
-    <t>中非</t>
-  </si>
-  <si>
-    <t>塞卜泰(休达)</t>
-  </si>
-  <si>
-    <t>乍得</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>刚果(布)</t>
-  </si>
-  <si>
-    <t>吉布提</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>赤道几内亚</t>
-  </si>
-  <si>
-    <t>埃塞俄比亚</t>
-  </si>
-  <si>
-    <t>加蓬</t>
-  </si>
-  <si>
-    <t>冈比亚</t>
-  </si>
-  <si>
-    <t>加纳</t>
-  </si>
-  <si>
-    <t>几内亚</t>
-  </si>
-  <si>
-    <t>几内亚比绍</t>
-  </si>
-  <si>
-    <t>科特迪瓦</t>
-  </si>
-  <si>
-    <t>肯尼亚</t>
-  </si>
-  <si>
-    <t>利比里亚</t>
-  </si>
-  <si>
-    <t>利比亚</t>
-  </si>
-  <si>
-    <t>马达加斯加</t>
-  </si>
-  <si>
-    <t>马拉维</t>
-  </si>
-  <si>
-    <t>毛里塔尼亚</t>
-  </si>
-  <si>
-    <t>毛里求斯</t>
-  </si>
-  <si>
-    <t>摩洛哥</t>
-  </si>
-  <si>
-    <t>莫桑比克</t>
-  </si>
-  <si>
-    <t>纳米比亚</t>
-  </si>
-  <si>
-    <t>尼日尔</t>
-  </si>
-  <si>
-    <t>尼日利亚</t>
-  </si>
-  <si>
-    <t>留尼汪</t>
-  </si>
-  <si>
-    <t>卢旺达</t>
-  </si>
-  <si>
-    <t>圣多美和普林西比</t>
-  </si>
-  <si>
-    <t>塞内加尔</t>
-  </si>
-  <si>
-    <t>塞舌尔</t>
-  </si>
-  <si>
-    <t>塞拉利昂</t>
-  </si>
-  <si>
-    <t>索马里</t>
-  </si>
-  <si>
-    <t>西撒哈拉</t>
-  </si>
-  <si>
-    <t>苏丹</t>
-  </si>
-  <si>
-    <t>坦桑尼亚</t>
-  </si>
-  <si>
-    <t>多哥</t>
-  </si>
-  <si>
-    <t>突尼斯</t>
-  </si>
-  <si>
-    <t>乌干达</t>
-  </si>
-  <si>
-    <t>布基纳法索</t>
-  </si>
-  <si>
-    <t>刚果(金)</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>梅利利亚</t>
-  </si>
-  <si>
-    <t>斯威士兰</t>
-  </si>
-  <si>
-    <t>厄立特里亚</t>
-  </si>
-  <si>
-    <t>马约特</t>
-  </si>
-  <si>
-    <t>南苏丹共和国</t>
-  </si>
-  <si>
-    <t>非洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>比利时</t>
-  </si>
-  <si>
-    <t>丹麦</t>
-  </si>
-  <si>
-    <t>英国</t>
-  </si>
-  <si>
-    <t>德国</t>
-  </si>
-  <si>
-    <t>法国</t>
-  </si>
-  <si>
-    <t>爱尔兰</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>卢森堡</t>
-  </si>
-  <si>
-    <t>荷兰</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>葡萄牙</t>
-  </si>
-  <si>
-    <t>西班牙</t>
-  </si>
-  <si>
-    <t>阿尔巴尼亚</t>
-  </si>
-  <si>
-    <t>奥地利</t>
-  </si>
-  <si>
-    <t>保加利亚</t>
-  </si>
-  <si>
-    <t>芬兰</t>
-  </si>
-  <si>
-    <t>直布罗陀</t>
-  </si>
-  <si>
-    <t>匈牙利</t>
-  </si>
-  <si>
-    <t>冰岛</t>
-  </si>
-  <si>
-    <t>列支敦士登</t>
-  </si>
-  <si>
-    <t>马耳他</t>
-  </si>
-  <si>
-    <t>摩纳哥</t>
-  </si>
-  <si>
-    <t>挪威</t>
-  </si>
-  <si>
-    <t>波兰</t>
-  </si>
-  <si>
-    <t>罗马尼亚</t>
-  </si>
-  <si>
-    <t>圣马力诺</t>
-  </si>
-  <si>
-    <t>瑞典</t>
-  </si>
-  <si>
-    <t>瑞士</t>
-  </si>
-  <si>
-    <t>爱沙尼亚</t>
-  </si>
-  <si>
-    <t>拉脱维亚</t>
-  </si>
-  <si>
-    <t>格鲁吉亚</t>
-  </si>
-  <si>
-    <t>亚美尼亚</t>
-  </si>
-  <si>
-    <t>阿塞拜疆</t>
-  </si>
-  <si>
-    <t>白俄罗斯</t>
-  </si>
-  <si>
-    <t>摩尔多瓦</t>
-  </si>
-  <si>
-    <t>俄罗斯联邦</t>
-  </si>
-  <si>
-    <t>克罗地亚</t>
-  </si>
-  <si>
-    <t>捷克</t>
-  </si>
-  <si>
-    <t>斯洛伐克</t>
-  </si>
-  <si>
-    <t>前南马其顿</t>
-  </si>
-  <si>
-    <t>波黑</t>
-  </si>
-  <si>
-    <t>梵蒂冈城国</t>
-  </si>
-  <si>
-    <t>法罗群岛</t>
-  </si>
-  <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
-    <t>黑山</t>
-  </si>
-  <si>
-    <t>拉丁美洲</t>
-  </si>
-  <si>
-    <t>安提瓜和巴布达</t>
-  </si>
-  <si>
-    <t>阿根廷</t>
-  </si>
-  <si>
-    <t>阿鲁巴</t>
-  </si>
-  <si>
-    <t>巴哈马</t>
-  </si>
-  <si>
-    <t>巴巴多斯</t>
-  </si>
-  <si>
-    <t>伯利兹</t>
-  </si>
-  <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
-    <t>博内尔</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>开曼群岛</t>
-  </si>
-  <si>
-    <t>智利</t>
-  </si>
-  <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
-    <t>多米尼克</t>
-  </si>
-  <si>
-    <t>哥斯达黎加</t>
-  </si>
-  <si>
-    <t>古巴</t>
-  </si>
-  <si>
-    <t>库腊索岛</t>
-  </si>
-  <si>
-    <t>多米尼加共和国</t>
-  </si>
-  <si>
-    <t>厄瓜多尔</t>
-  </si>
-  <si>
-    <t>法属圭亚那</t>
-  </si>
-  <si>
-    <t>格林纳达</t>
-  </si>
-  <si>
-    <t>瓜德罗普</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>圭亚那</t>
-  </si>
-  <si>
-    <t>海地</t>
-  </si>
-  <si>
-    <t>洪都拉斯</t>
-  </si>
-  <si>
-    <t>牙买加</t>
-  </si>
-  <si>
-    <t>马提尼克</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>蒙特塞拉特</t>
-  </si>
-  <si>
-    <t>尼加拉瓜</t>
-  </si>
-  <si>
-    <t>巴拿马</t>
-  </si>
-  <si>
-    <t>巴拉圭</t>
-  </si>
-  <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
-    <t>圣卢西亚</t>
-  </si>
-  <si>
-    <t>圣马丁岛</t>
-  </si>
-  <si>
-    <t>圣文森特和格林纳丁斯</t>
-  </si>
-  <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
-    <t>特立尼达和多巴哥</t>
-  </si>
-  <si>
-    <t>特克斯和凯科斯群岛</t>
-  </si>
-  <si>
-    <t>委内瑞拉</t>
-  </si>
-  <si>
-    <t>英属维尔京群岛</t>
-  </si>
-  <si>
-    <t>圣基茨和尼维斯</t>
-  </si>
-  <si>
-    <t>圣皮埃尔和密克隆</t>
-  </si>
-  <si>
-    <t>荷属安的列斯</t>
-  </si>
-  <si>
-    <t>拉丁美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>北美洲</t>
-  </si>
-  <si>
-    <t>加拿大</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>百慕大</t>
-  </si>
-  <si>
-    <t>北美洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>斐济</t>
-  </si>
-  <si>
-    <t>盖比群岛</t>
-  </si>
-  <si>
-    <t>马克萨斯群岛</t>
-  </si>
-  <si>
-    <t>新喀里多尼亚</t>
-  </si>
-  <si>
-    <t>瓦努阿图</t>
-  </si>
-  <si>
-    <t>新西兰</t>
-  </si>
-  <si>
-    <t>诺福克岛</t>
-  </si>
-  <si>
-    <t>社会群岛</t>
-  </si>
-  <si>
-    <t>所罗门群岛</t>
-  </si>
-  <si>
-    <t>汤加</t>
-  </si>
-  <si>
-    <t>土阿莫土群岛</t>
-  </si>
-  <si>
-    <t>土布艾群岛</t>
-  </si>
-  <si>
-    <t>萨摩亚</t>
-  </si>
-  <si>
-    <t>基里巴斯</t>
-  </si>
-  <si>
-    <t>图瓦卢</t>
-  </si>
-  <si>
-    <t>密克罗尼西亚联邦</t>
-  </si>
-  <si>
-    <t>马绍尔群岛</t>
-  </si>
-  <si>
-    <t>帕劳</t>
-  </si>
-  <si>
-    <t>法属波利尼西亚</t>
-  </si>
-  <si>
-    <t>瓦利斯和浮图纳</t>
-  </si>
-  <si>
-    <t>国(地)别不详的</t>
-  </si>
-  <si>
-    <t>中国香港</t>
-  </si>
-  <si>
-    <t>马来西亚 </t>
-  </si>
-  <si>
-    <t>中国台湾</t>
-  </si>
-  <si>
     <t>month</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -707,83 +47,987 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>澳门</t>
-  </si>
-  <si>
-    <t>尼泊尔联邦民主共和国</t>
-  </si>
-  <si>
-    <t>乌兹别克斯坦</t>
-  </si>
-  <si>
-    <t>喀麦隆</t>
-  </si>
-  <si>
-    <t>马里</t>
-  </si>
-  <si>
-    <t>南非</t>
-  </si>
-  <si>
-    <t>赞比亚</t>
-  </si>
-  <si>
-    <t>莱索托</t>
-  </si>
-  <si>
-    <t>安道尔</t>
-  </si>
-  <si>
-    <t>立陶宛</t>
-  </si>
-  <si>
-    <t>乌克兰</t>
-  </si>
-  <si>
-    <t>斯洛文尼亚</t>
-  </si>
-  <si>
-    <t>欧洲其他国家(地区)</t>
-  </si>
-  <si>
-    <t>波多黎各</t>
-  </si>
-  <si>
-    <t>萨巴</t>
-  </si>
-  <si>
-    <t>苏里南</t>
-  </si>
-  <si>
-    <t>乌拉圭</t>
-  </si>
-  <si>
-    <t>格陵兰</t>
-  </si>
-  <si>
-    <t>大洋洲</t>
-  </si>
-  <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
-    <t>库克群岛</t>
-  </si>
-  <si>
-    <t>瑙鲁</t>
-  </si>
-  <si>
-    <t>巴布亚新几内亚</t>
-  </si>
-  <si>
-    <t>大洋洲其他国家(地区)</t>
+    <t>Afghanistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahrian</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhutan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brunei</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Myanmar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambodia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyprus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,DPR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Hong Kong</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>India</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indonesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iran</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iraq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Japan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jordan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kuwait</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lebanon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Macau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malaysia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maldives</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mongolia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nepal,FDR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oman</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pakistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palestine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philippines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qatar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Singapore</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Korea,Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Syrian Arab Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thailand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yemen</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>China Taiwan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Asia nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Angola</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Benin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Botswana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burundi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cameroon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canary Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Central African Rep.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ceuta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chad</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comoros</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djibouti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Egypt</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gabon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kenya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liberia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Libyan Arab Jamahiriya</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Madagascar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malawi</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mali</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mauritius</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Morocco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mozambique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Namibia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Niger</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nigeria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reunion</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rwanda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Senegal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seychelles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Somalia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>South Africa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tanzania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Togo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tunisia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uganda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congo,DR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zambia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lesotho</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Melilla</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swaziland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eritrea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mayotte</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Republic of South Sudan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Afr.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belgium</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denmark</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Germany</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>France</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ireland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Italy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greece</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Portugal</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spain</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andorra</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Austria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hungary</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iceland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Malta</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monaco</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norway</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Poland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Romania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>San Marino</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweden</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Switzerland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Estonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latvia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lithuania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Georgia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belarus</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moldova</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukraine</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovenia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Croatia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slovakia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Macedonia,FYR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bosnia and Hercegovina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vatican City State</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serbia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montenegro</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Eur.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Latin America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argentina</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aruba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bahamas</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barbados</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Belize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bolivia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bonaire</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brazil</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chile</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colombia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cuba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Curacao</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ecuador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Guiana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grenada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guatemala</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guyana</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Haiti</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Honduras</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jamaica</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Martinique</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mexico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Montserrat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panama</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paraguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saba</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saint Martin Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Vincent&amp;Grenadines</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>El Salvador</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Suriname</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turks&amp;Caicos Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uruguay</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Venezuela</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virgin Islands,British</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Kitts&amp;Nevis</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>St.Pierre&amp;Miquelon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.L.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>North America</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Canada</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>United States</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greenland</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bermuda</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.N.Amer.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oceania</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Australia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fiji</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gambier Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marquesas Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nauru</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Zealand</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Society Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tonga</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuamotu Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tubai Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samoa</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiribati</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micronesia,FS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palau</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oth.Ocean.nes</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countries(reg.)unknown</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -821,16 +1065,10 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -855,7 +1093,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -872,9 +1110,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1210,24 +1445,24 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>224</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="21">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2">
-        <v>41155</v>
+        <v>60829</v>
       </c>
       <c r="C2" s="2">
-        <v>41014</v>
+        <v>60620</v>
       </c>
       <c r="D2" s="3">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="E2" s="4">
         <v>2017</v>
@@ -1242,16 +1477,16 @@
     </row>
     <row r="3" spans="1:10" ht="21">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>60373</v>
+        <v>89328</v>
       </c>
       <c r="C3" s="2">
-        <v>55915</v>
+        <v>82718</v>
       </c>
       <c r="D3" s="2">
-        <v>4458</v>
+        <v>6610</v>
       </c>
       <c r="E3" s="4">
         <v>2017</v>
@@ -1266,16 +1501,16 @@
     </row>
     <row r="4" spans="1:10" ht="21">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>901669</v>
+        <v>1333351</v>
       </c>
       <c r="C4" s="2">
-        <v>847422</v>
+        <v>1252913</v>
       </c>
       <c r="D4" s="2">
-        <v>54247</v>
+        <v>80438</v>
       </c>
       <c r="E4" s="4">
         <v>2017</v>
@@ -1290,16 +1525,16 @@
     </row>
     <row r="5" spans="1:10" ht="21">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="C5" s="3">
-        <v>228</v>
+        <v>338</v>
       </c>
       <c r="D5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>2017</v>
@@ -1314,16 +1549,16 @@
     </row>
     <row r="6" spans="1:10" ht="21">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>68354</v>
+        <v>101290</v>
       </c>
       <c r="C6" s="2">
-        <v>39814</v>
+        <v>58973</v>
       </c>
       <c r="D6" s="2">
-        <v>28540</v>
+        <v>42317</v>
       </c>
       <c r="E6" s="4">
         <v>2017</v>
@@ -1338,16 +1573,16 @@
     </row>
     <row r="7" spans="1:10" ht="21">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2">
-        <v>678613</v>
+        <v>1006010</v>
       </c>
       <c r="C7" s="2">
-        <v>468837</v>
+        <v>694812</v>
       </c>
       <c r="D7" s="2">
-        <v>209776</v>
+        <v>311199</v>
       </c>
       <c r="E7" s="4">
         <v>2017</v>
@@ -1362,16 +1597,16 @@
     </row>
     <row r="8" spans="1:10" ht="21">
       <c r="A8" s="5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2">
-        <v>352990</v>
+        <v>522769</v>
       </c>
       <c r="C8" s="2">
-        <v>276127</v>
+        <v>408839</v>
       </c>
       <c r="D8" s="2">
-        <v>76863</v>
+        <v>113930</v>
       </c>
       <c r="E8" s="4">
         <v>2017</v>
@@ -1386,16 +1621,16 @@
     </row>
     <row r="9" spans="1:10" ht="21">
       <c r="A9" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2">
-        <v>25695</v>
+        <v>38018</v>
       </c>
       <c r="C9" s="2">
-        <v>21468</v>
+        <v>31714</v>
       </c>
       <c r="D9" s="2">
-        <v>4227</v>
+        <v>6304</v>
       </c>
       <c r="E9" s="4">
         <v>2017</v>
@@ -1410,16 +1645,16 @@
     </row>
     <row r="10" spans="1:10" ht="21">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2">
-        <v>408380</v>
+        <v>604265</v>
       </c>
       <c r="C10" s="2">
-        <v>213415</v>
+        <v>315973</v>
       </c>
       <c r="D10" s="2">
-        <v>194965</v>
+        <v>288292</v>
       </c>
       <c r="E10" s="4">
         <v>2017</v>
@@ -1433,17 +1668,17 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:10" ht="21">
-      <c r="A11" s="6" t="s">
-        <v>221</v>
+      <c r="A11" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="2">
-        <v>16216101</v>
+        <v>23995568</v>
       </c>
       <c r="C11" s="2">
-        <v>15740562</v>
+        <v>23290777</v>
       </c>
       <c r="D11" s="2">
-        <v>475540</v>
+        <v>704791</v>
       </c>
       <c r="E11" s="4">
         <v>2017</v>
@@ -1458,16 +1693,16 @@
     </row>
     <row r="12" spans="1:10" ht="21">
       <c r="A12" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2">
-        <v>5074674</v>
+        <v>7509639</v>
       </c>
       <c r="C12" s="2">
-        <v>4221199</v>
+        <v>6244660</v>
       </c>
       <c r="D12" s="2">
-        <v>853476</v>
+        <v>1264979</v>
       </c>
       <c r="E12" s="4">
         <v>2017</v>
@@ -1482,16 +1717,16 @@
     </row>
     <row r="13" spans="1:10" ht="21">
       <c r="A13" s="5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
-        <v>3444703</v>
+        <v>5097128</v>
       </c>
       <c r="C13" s="2">
-        <v>1914629</v>
+        <v>2831653</v>
       </c>
       <c r="D13" s="2">
-        <v>1530074</v>
+        <v>2265475</v>
       </c>
       <c r="E13" s="4">
         <v>2017</v>
@@ -1506,16 +1741,16 @@
     </row>
     <row r="14" spans="1:10" ht="21">
       <c r="A14" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2">
-        <v>2243340</v>
+        <v>3326411</v>
       </c>
       <c r="C14" s="2">
-        <v>1097834</v>
+        <v>1627815</v>
       </c>
       <c r="D14" s="2">
-        <v>1145506</v>
+        <v>1698597</v>
       </c>
       <c r="E14" s="4">
         <v>2017</v>
@@ -1530,16 +1765,16 @@
     </row>
     <row r="15" spans="1:10" ht="21">
       <c r="A15" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2">
-        <v>1234231</v>
+        <v>1827859</v>
       </c>
       <c r="C15" s="2">
-        <v>522691</v>
+        <v>772959</v>
       </c>
       <c r="D15" s="2">
-        <v>711540</v>
+        <v>1054900</v>
       </c>
       <c r="E15" s="4">
         <v>2017</v>
@@ -1554,16 +1789,16 @@
     </row>
     <row r="16" spans="1:10" ht="21">
       <c r="A16" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>776889</v>
+        <v>1150315</v>
       </c>
       <c r="C16" s="2">
-        <v>524128</v>
+        <v>775646</v>
       </c>
       <c r="D16" s="2">
-        <v>252761</v>
+        <v>374669</v>
       </c>
       <c r="E16" s="4">
         <v>2017</v>
@@ -1578,16 +1813,16 @@
     </row>
     <row r="17" spans="1:10" ht="21">
       <c r="A17" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2">
-        <v>17121605</v>
+        <v>25411557</v>
       </c>
       <c r="C17" s="2">
-        <v>7531134</v>
+        <v>11157866</v>
       </c>
       <c r="D17" s="2">
-        <v>9590470</v>
+        <v>14253692</v>
       </c>
       <c r="E17" s="4">
         <v>2017</v>
@@ -1602,16 +1837,16 @@
     </row>
     <row r="18" spans="1:10" ht="21">
       <c r="A18" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2">
-        <v>192866</v>
+        <v>285323</v>
       </c>
       <c r="C18" s="2">
-        <v>177908</v>
+        <v>263147</v>
       </c>
       <c r="D18" s="2">
-        <v>14958</v>
+        <v>22176</v>
       </c>
       <c r="E18" s="4">
         <v>2017</v>
@@ -1626,16 +1861,16 @@
     </row>
     <row r="19" spans="1:10" ht="21">
       <c r="A19" s="5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2">
-        <v>722082</v>
+        <v>1069990</v>
       </c>
       <c r="C19" s="2">
-        <v>169132</v>
+        <v>250172</v>
       </c>
       <c r="D19" s="2">
-        <v>552950</v>
+        <v>819818</v>
       </c>
       <c r="E19" s="4">
         <v>2017</v>
@@ -1650,16 +1885,16 @@
     </row>
     <row r="20" spans="1:10" ht="21">
       <c r="A20" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" s="2">
-        <v>144497</v>
+        <v>213998</v>
       </c>
       <c r="C20" s="2">
-        <v>65560</v>
+        <v>97155</v>
       </c>
       <c r="D20" s="2">
-        <v>78936</v>
+        <v>116843</v>
       </c>
       <c r="E20" s="4">
         <v>2017</v>
@@ -1674,16 +1909,16 @@
     </row>
     <row r="21" spans="1:10" ht="21">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21" s="2">
-        <v>105188</v>
+        <v>155529</v>
       </c>
       <c r="C21" s="2">
-        <v>104025</v>
+        <v>153804</v>
       </c>
       <c r="D21" s="2">
-        <v>1163</v>
+        <v>1725</v>
       </c>
       <c r="E21" s="4">
         <v>2017</v>
@@ -1698,16 +1933,16 @@
     </row>
     <row r="22" spans="1:10" ht="21">
       <c r="A22" s="5" t="s">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="B22" s="2">
-        <v>152528</v>
+        <v>225781</v>
       </c>
       <c r="C22" s="2">
-        <v>146962</v>
+        <v>217528</v>
       </c>
       <c r="D22" s="2">
-        <v>5565</v>
+        <v>8253</v>
       </c>
       <c r="E22" s="4">
         <v>2017</v>
@@ -1722,16 +1957,16 @@
     </row>
     <row r="23" spans="1:10" ht="21">
       <c r="A23" s="5" t="s">
-        <v>222</v>
+        <v>27</v>
       </c>
       <c r="B23" s="2">
-        <v>5595680</v>
+        <v>8285811</v>
       </c>
       <c r="C23" s="2">
-        <v>2120700</v>
+        <v>3138095</v>
       </c>
       <c r="D23" s="2">
-        <v>3474980</v>
+        <v>5147716</v>
       </c>
       <c r="E23" s="4">
         <v>2017</v>
@@ -1746,16 +1981,16 @@
     </row>
     <row r="24" spans="1:10" ht="21">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>13469</v>
+        <v>19910</v>
       </c>
       <c r="C24" s="2">
-        <v>13462</v>
+        <v>19899</v>
       </c>
       <c r="D24" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E24" s="4">
         <v>2017</v>
@@ -1770,16 +2005,16 @@
     </row>
     <row r="25" spans="1:10" ht="21">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
-        <v>363003</v>
+        <v>538350</v>
       </c>
       <c r="C25" s="2">
-        <v>88974</v>
+        <v>131923</v>
       </c>
       <c r="D25" s="2">
-        <v>274029</v>
+        <v>406427</v>
       </c>
       <c r="E25" s="4">
         <v>2017</v>
@@ -1794,16 +2029,16 @@
     </row>
     <row r="26" spans="1:10" ht="21">
       <c r="A26" s="5" t="s">
-        <v>227</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2">
-        <v>64443</v>
+        <v>95552</v>
       </c>
       <c r="C26" s="2">
-        <v>63449</v>
-      </c>
-      <c r="D26" s="3">
-        <v>995</v>
+        <v>94070</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1481</v>
       </c>
       <c r="E26" s="4">
         <v>2017</v>
@@ -1818,16 +2053,16 @@
     </row>
     <row r="27" spans="1:10" ht="21">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2">
-        <v>791371</v>
+        <v>1172003</v>
       </c>
       <c r="C27" s="2">
-        <v>137264</v>
+        <v>202788</v>
       </c>
       <c r="D27" s="2">
-        <v>654107</v>
+        <v>969214</v>
       </c>
       <c r="E27" s="4">
         <v>2017</v>
@@ -1842,16 +2077,16 @@
     </row>
     <row r="28" spans="1:10" ht="21">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2">
-        <v>1160043</v>
+        <v>1714142</v>
       </c>
       <c r="C28" s="2">
-        <v>1071603</v>
+        <v>1583071</v>
       </c>
       <c r="D28" s="2">
-        <v>88441</v>
+        <v>131071</v>
       </c>
       <c r="E28" s="4">
         <v>2017</v>
@@ -1866,13 +2101,13 @@
     </row>
     <row r="29" spans="1:10" ht="21">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2">
-        <v>3602</v>
+        <v>5332</v>
       </c>
       <c r="C29" s="2">
-        <v>3600</v>
+        <v>5329</v>
       </c>
       <c r="D29" s="3">
         <v>2</v>
@@ -1890,16 +2125,16 @@
     </row>
     <row r="30" spans="1:10" ht="21">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B30" s="2">
-        <v>3060218</v>
+        <v>4528978</v>
       </c>
       <c r="C30" s="2">
-        <v>1853271</v>
+        <v>2741216</v>
       </c>
       <c r="D30" s="2">
-        <v>1206947</v>
+        <v>1787762</v>
       </c>
       <c r="E30" s="4">
         <v>2017</v>
@@ -1914,16 +2149,16 @@
     </row>
     <row r="31" spans="1:10" ht="21">
       <c r="A31" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>583232</v>
+        <v>864066</v>
       </c>
       <c r="C31" s="2">
-        <v>99834</v>
+        <v>147678</v>
       </c>
       <c r="D31" s="2">
-        <v>483398</v>
+        <v>716388</v>
       </c>
       <c r="E31" s="4">
         <v>2017</v>
@@ -1938,16 +2173,16 @@
     </row>
     <row r="32" spans="1:10" ht="21">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2">
-        <v>2538092</v>
+        <v>3757667</v>
       </c>
       <c r="C32" s="2">
-        <v>1001196</v>
+        <v>1480503</v>
       </c>
       <c r="D32" s="2">
-        <v>1536896</v>
+        <v>2277164</v>
       </c>
       <c r="E32" s="4">
         <v>2017</v>
@@ -1962,16 +2197,16 @@
     </row>
     <row r="33" spans="1:10" ht="21">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>4542576</v>
+        <v>6718816</v>
       </c>
       <c r="C33" s="2">
-        <v>2395623</v>
+        <v>3539435</v>
       </c>
       <c r="D33" s="2">
-        <v>2146953</v>
+        <v>3179381</v>
       </c>
       <c r="E33" s="4">
         <v>2017</v>
@@ -1986,16 +2221,16 @@
     </row>
     <row r="34" spans="1:10" ht="21">
       <c r="A34" s="5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" s="2">
-        <v>16147934</v>
+        <v>23901789</v>
       </c>
       <c r="C34" s="2">
-        <v>5840406</v>
+        <v>8635217</v>
       </c>
       <c r="D34" s="2">
-        <v>10307528</v>
+        <v>15266573</v>
       </c>
       <c r="E34" s="4">
         <v>2017</v>
@@ -2010,16 +2245,16 @@
     </row>
     <row r="35" spans="1:10" ht="21">
       <c r="A35" s="5" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>274034</v>
+        <v>405176</v>
       </c>
       <c r="C35" s="2">
-        <v>251496</v>
+        <v>371739</v>
       </c>
       <c r="D35" s="2">
-        <v>22538</v>
+        <v>33437</v>
       </c>
       <c r="E35" s="4">
         <v>2017</v>
@@ -2034,16 +2269,16 @@
     </row>
     <row r="36" spans="1:10" ht="21">
       <c r="A36" s="5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B36" s="2">
-        <v>69094</v>
+        <v>102230</v>
       </c>
       <c r="C36" s="2">
-        <v>69086</v>
+        <v>102219</v>
       </c>
       <c r="D36" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E36" s="4">
         <v>2017</v>
@@ -2058,16 +2293,16 @@
     </row>
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2">
-        <v>4857142</v>
+        <v>7193108</v>
       </c>
       <c r="C37" s="2">
-        <v>2343813</v>
+        <v>3468582</v>
       </c>
       <c r="D37" s="2">
-        <v>2513329</v>
+        <v>3724526</v>
       </c>
       <c r="E37" s="4">
         <v>2017</v>
@@ -2082,16 +2317,16 @@
     </row>
     <row r="38" spans="1:10" ht="21">
       <c r="A38" s="5" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>1276471</v>
+        <v>1889662</v>
       </c>
       <c r="C38" s="2">
-        <v>1077927</v>
+        <v>1594812</v>
       </c>
       <c r="D38" s="2">
-        <v>198544</v>
+        <v>294850</v>
       </c>
       <c r="E38" s="4">
         <v>2017</v>
@@ -2106,16 +2341,16 @@
     </row>
     <row r="39" spans="1:10" ht="21">
       <c r="A39" s="5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>2220803</v>
+        <v>3284841</v>
       </c>
       <c r="C39" s="2">
-        <v>1670348</v>
+        <v>2470046</v>
       </c>
       <c r="D39" s="2">
-        <v>550455</v>
+        <v>814795</v>
       </c>
       <c r="E39" s="4">
         <v>2017</v>
@@ -2130,16 +2365,16 @@
     </row>
     <row r="40" spans="1:10" ht="21">
       <c r="A40" s="5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>105316</v>
+        <v>155720</v>
       </c>
       <c r="C40" s="2">
-        <v>103952</v>
+        <v>153703</v>
       </c>
       <c r="D40" s="2">
-        <v>1364</v>
+        <v>2017</v>
       </c>
       <c r="E40" s="4">
         <v>2017</v>
@@ -2154,16 +2389,16 @@
     </row>
     <row r="41" spans="1:10" ht="21">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>7149702</v>
+        <v>10607201</v>
       </c>
       <c r="C41" s="2">
-        <v>4239926</v>
+        <v>6279006</v>
       </c>
       <c r="D41" s="2">
-        <v>2909776</v>
+        <v>4328195</v>
       </c>
       <c r="E41" s="4">
         <v>2017</v>
@@ -2178,16 +2413,16 @@
     </row>
     <row r="42" spans="1:10" ht="21">
       <c r="A42" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>8118271</v>
+        <v>12012467</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D42" s="2">
-        <v>8118271</v>
+        <v>12012467</v>
       </c>
       <c r="E42" s="4">
         <v>2017</v>
@@ -2201,17 +2436,17 @@
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" ht="21">
-      <c r="A43" s="6" t="s">
-        <v>223</v>
+      <c r="A43" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B43" s="2">
-        <v>11889274</v>
+        <v>17601719</v>
       </c>
       <c r="C43" s="2">
-        <v>2537882</v>
+        <v>3755479</v>
       </c>
       <c r="D43" s="2">
-        <v>9351392</v>
+        <v>13846240</v>
       </c>
       <c r="E43" s="4">
         <v>2017</v>
@@ -2226,16 +2461,16 @@
     </row>
     <row r="44" spans="1:10" ht="21">
       <c r="A44" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B44" s="2">
-        <v>5724</v>
+        <v>8440</v>
       </c>
       <c r="C44" s="2">
-        <v>5710</v>
+        <v>8418</v>
       </c>
       <c r="D44" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E44" s="4">
         <v>2017</v>
@@ -2250,16 +2485,16 @@
     </row>
     <row r="45" spans="1:10" ht="21">
       <c r="A45" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B45" s="2">
-        <v>916296</v>
+        <v>1356398</v>
       </c>
       <c r="C45" s="2">
-        <v>665339</v>
+        <v>984426</v>
       </c>
       <c r="D45" s="2">
-        <v>250957</v>
+        <v>371973</v>
       </c>
       <c r="E45" s="4">
         <v>2017</v>
@@ -2274,16 +2509,16 @@
     </row>
     <row r="46" spans="1:10" ht="21">
       <c r="A46" s="5" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B46" s="2">
-        <v>554684</v>
+        <v>822094</v>
       </c>
       <c r="C46" s="2">
-        <v>552507</v>
+        <v>818868</v>
       </c>
       <c r="D46" s="2">
-        <v>2177</v>
+        <v>3225</v>
       </c>
       <c r="E46" s="4">
         <v>2017</v>
@@ -2298,16 +2533,16 @@
     </row>
     <row r="47" spans="1:10" ht="21">
       <c r="A47" s="5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B47" s="2">
-        <v>108425</v>
+        <v>160594</v>
       </c>
       <c r="C47" s="2">
-        <v>107249</v>
+        <v>158851</v>
       </c>
       <c r="D47" s="2">
-        <v>1176</v>
+        <v>1743</v>
       </c>
       <c r="E47" s="4">
         <v>2017</v>
@@ -2322,16 +2557,16 @@
     </row>
     <row r="48" spans="1:10" ht="21">
       <c r="A48" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B48" s="2">
-        <v>412158</v>
+        <v>610943</v>
       </c>
       <c r="C48" s="2">
-        <v>28520</v>
+        <v>42177</v>
       </c>
       <c r="D48" s="2">
-        <v>383638</v>
+        <v>568766</v>
       </c>
       <c r="E48" s="4">
         <v>2017</v>
@@ -2346,16 +2581,16 @@
     </row>
     <row r="49" spans="1:10" ht="21">
       <c r="A49" s="5" t="s">
-        <v>228</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2">
-        <v>251442</v>
+        <v>371861</v>
       </c>
       <c r="C49" s="2">
-        <v>173853</v>
+        <v>256845</v>
       </c>
       <c r="D49" s="2">
-        <v>77589</v>
+        <v>115016</v>
       </c>
       <c r="E49" s="4">
         <v>2017</v>
@@ -2370,13 +2605,13 @@
     </row>
     <row r="50" spans="1:10" ht="21">
       <c r="A50" s="5" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C50" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D50" s="3">
         <v>0</v>
@@ -2394,16 +2629,16 @@
     </row>
     <row r="51" spans="1:10" ht="21">
       <c r="A51" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B51" s="2">
-        <v>9116291</v>
+        <v>13494338</v>
       </c>
       <c r="C51" s="2">
-        <v>5265373</v>
+        <v>7786531</v>
       </c>
       <c r="D51" s="2">
-        <v>3850919</v>
+        <v>5707807</v>
       </c>
       <c r="E51" s="4">
         <v>2017</v>
@@ -2418,16 +2653,16 @@
     </row>
     <row r="52" spans="1:10" ht="21">
       <c r="A52" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B52" s="2">
-        <v>351931</v>
+        <v>520524</v>
       </c>
       <c r="C52" s="2">
-        <v>351273</v>
+        <v>519545</v>
       </c>
       <c r="D52" s="3">
-        <v>658</v>
+        <v>979</v>
       </c>
       <c r="E52" s="4">
         <v>2017</v>
@@ -2442,16 +2677,16 @@
     </row>
     <row r="53" spans="1:10" ht="21">
       <c r="A53" s="5" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B53" s="2">
-        <v>1138228</v>
+        <v>1686369</v>
       </c>
       <c r="C53" s="2">
-        <v>132149</v>
+        <v>195372</v>
       </c>
       <c r="D53" s="2">
-        <v>1006079</v>
+        <v>1490996</v>
       </c>
       <c r="E53" s="4">
         <v>2017</v>
@@ -2466,16 +2701,16 @@
     </row>
     <row r="54" spans="1:10" ht="21">
       <c r="A54" s="5" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B54" s="2">
-        <v>137575</v>
+        <v>203312</v>
       </c>
       <c r="C54" s="2">
-        <v>133495</v>
+        <v>197262</v>
       </c>
       <c r="D54" s="2">
-        <v>4080</v>
+        <v>6049</v>
       </c>
       <c r="E54" s="4">
         <v>2017</v>
@@ -2490,16 +2725,16 @@
     </row>
     <row r="55" spans="1:10" ht="21">
       <c r="A55" s="5" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>18337</v>
+        <v>27124</v>
       </c>
       <c r="C55" s="2">
-        <v>15016</v>
+        <v>22200</v>
       </c>
       <c r="D55" s="2">
-        <v>3321</v>
+        <v>4924</v>
       </c>
       <c r="E55" s="4">
         <v>2017</v>
@@ -2514,16 +2749,16 @@
     </row>
     <row r="56" spans="1:10" ht="21">
       <c r="A56" s="5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>3646</v>
+        <v>5396</v>
       </c>
       <c r="C56" s="2">
-        <v>3550</v>
+        <v>5254</v>
       </c>
       <c r="D56" s="3">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="E56" s="4">
         <v>2017</v>
@@ -2538,16 +2773,16 @@
     </row>
     <row r="57" spans="1:10" ht="21">
       <c r="A57" s="5" t="s">
-        <v>229</v>
+        <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>98066</v>
+        <v>145305</v>
       </c>
       <c r="C57" s="2">
-        <v>81389</v>
+        <v>120359</v>
       </c>
       <c r="D57" s="2">
-        <v>16678</v>
+        <v>24947</v>
       </c>
       <c r="E57" s="4">
         <v>2017</v>
@@ -2562,13 +2797,13 @@
     </row>
     <row r="58" spans="1:10" ht="21">
       <c r="A58" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>303</v>
+        <v>450</v>
       </c>
       <c r="C58" s="3">
-        <v>303</v>
+        <v>449</v>
       </c>
       <c r="D58" s="3">
         <v>1</v>
@@ -2586,13 +2821,13 @@
     </row>
     <row r="59" spans="1:10" ht="21">
       <c r="A59" s="5" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>8631</v>
+        <v>12795</v>
       </c>
       <c r="C59" s="2">
-        <v>8631</v>
+        <v>12794</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
@@ -2610,16 +2845,16 @@
     </row>
     <row r="60" spans="1:10" ht="21">
       <c r="A60" s="5" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B60" s="2">
-        <v>2446</v>
+        <v>3654</v>
       </c>
       <c r="C60" s="3">
-        <v>553</v>
+        <v>818</v>
       </c>
       <c r="D60" s="2">
-        <v>1893</v>
+        <v>2836</v>
       </c>
       <c r="E60" s="4">
         <v>2017</v>
@@ -2634,16 +2869,16 @@
     </row>
     <row r="61" spans="1:10" ht="21">
       <c r="A61" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E61" s="4">
         <v>2017</v>
@@ -2658,16 +2893,16 @@
     </row>
     <row r="62" spans="1:10" ht="21">
       <c r="A62" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B62" s="2">
-        <v>4895</v>
+        <v>7247</v>
       </c>
       <c r="C62" s="2">
-        <v>4760</v>
+        <v>7047</v>
       </c>
       <c r="D62" s="3">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="E62" s="4">
         <v>2017</v>
@@ -2682,16 +2917,16 @@
     </row>
     <row r="63" spans="1:10" ht="21">
       <c r="A63" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>2826</v>
+        <v>4178</v>
       </c>
       <c r="C63" s="2">
-        <v>2824</v>
+        <v>4176</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="4">
         <v>2017</v>
@@ -2706,16 +2941,16 @@
     </row>
     <row r="64" spans="1:10" ht="21">
       <c r="A64" s="5" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B64" s="2">
-        <v>334799</v>
+        <v>496303</v>
       </c>
       <c r="C64" s="2">
-        <v>32376</v>
+        <v>47857</v>
       </c>
       <c r="D64" s="2">
-        <v>302423</v>
+        <v>448445</v>
       </c>
       <c r="E64" s="4">
         <v>2017</v>
@@ -2730,13 +2965,13 @@
     </row>
     <row r="65" spans="1:10" ht="21">
       <c r="A65" s="5" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
-        <v>129717</v>
+        <v>191806</v>
       </c>
       <c r="C65" s="2">
-        <v>129717</v>
+        <v>191806</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -2754,16 +2989,16 @@
     </row>
     <row r="66" spans="1:10" ht="21">
       <c r="A66" s="5" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B66" s="2">
-        <v>608178</v>
+        <v>900437</v>
       </c>
       <c r="C66" s="2">
-        <v>542760</v>
+        <v>803455</v>
       </c>
       <c r="D66" s="2">
-        <v>65419</v>
+        <v>96982</v>
       </c>
       <c r="E66" s="4">
         <v>2017</v>
@@ -2778,16 +3013,16 @@
     </row>
     <row r="67" spans="1:10" ht="21">
       <c r="A67" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>72432</v>
+        <v>107293</v>
       </c>
       <c r="C67" s="2">
-        <v>12663</v>
+        <v>18676</v>
       </c>
       <c r="D67" s="2">
-        <v>59769</v>
+        <v>88616</v>
       </c>
       <c r="E67" s="4">
         <v>2017</v>
@@ -2802,16 +3037,16 @@
     </row>
     <row r="68" spans="1:10" ht="21">
       <c r="A68" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B68" s="2">
-        <v>174113</v>
+        <v>257690</v>
       </c>
       <c r="C68" s="2">
-        <v>155571</v>
+        <v>230223</v>
       </c>
       <c r="D68" s="2">
-        <v>18542</v>
+        <v>27467</v>
       </c>
       <c r="E68" s="4">
         <v>2017</v>
@@ -2826,16 +3061,16 @@
     </row>
     <row r="69" spans="1:10" ht="21">
       <c r="A69" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B69" s="2">
-        <v>110334</v>
+        <v>163665</v>
       </c>
       <c r="C69" s="2">
-        <v>21413</v>
+        <v>31684</v>
       </c>
       <c r="D69" s="2">
-        <v>88921</v>
+        <v>131981</v>
       </c>
       <c r="E69" s="4">
         <v>2017</v>
@@ -2850,16 +3085,16 @@
     </row>
     <row r="70" spans="1:10" ht="21">
       <c r="A70" s="5" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>39463</v>
+        <v>58411</v>
       </c>
       <c r="C70" s="2">
-        <v>32599</v>
+        <v>48235</v>
       </c>
       <c r="D70" s="2">
-        <v>6864</v>
+        <v>10175</v>
       </c>
       <c r="E70" s="4">
         <v>2017</v>
@@ -2874,16 +3109,16 @@
     </row>
     <row r="71" spans="1:10" ht="21">
       <c r="A71" s="5" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>323395</v>
+        <v>478390</v>
       </c>
       <c r="C71" s="2">
-        <v>259887</v>
+        <v>384174</v>
       </c>
       <c r="D71" s="2">
-        <v>63508</v>
+        <v>94216</v>
       </c>
       <c r="E71" s="4">
         <v>2017</v>
@@ -2898,16 +3133,16 @@
     </row>
     <row r="72" spans="1:10" ht="21">
       <c r="A72" s="5" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B72" s="2">
-        <v>177400</v>
+        <v>262531</v>
       </c>
       <c r="C72" s="2">
-        <v>70586</v>
+        <v>104341</v>
       </c>
       <c r="D72" s="2">
-        <v>106814</v>
+        <v>158190</v>
       </c>
       <c r="E72" s="4">
         <v>2017</v>
@@ -2922,16 +3157,16 @@
     </row>
     <row r="73" spans="1:10" ht="21">
       <c r="A73" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="3">
-        <v>928</v>
-      </c>
-      <c r="C73" s="3">
-        <v>928</v>
+        <v>77</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1375</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1375</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E73" s="4">
         <v>2017</v>
@@ -2946,16 +3181,16 @@
     </row>
     <row r="74" spans="1:10" ht="21">
       <c r="A74" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B74" s="2">
-        <v>95474</v>
+        <v>141226</v>
       </c>
       <c r="C74" s="2">
-        <v>92179</v>
+        <v>136318</v>
       </c>
       <c r="D74" s="2">
-        <v>3295</v>
+        <v>4907</v>
       </c>
       <c r="E74" s="4">
         <v>2017</v>
@@ -2970,16 +3205,16 @@
     </row>
     <row r="75" spans="1:10" ht="21">
       <c r="A75" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B75" s="2">
-        <v>251870</v>
+        <v>372412</v>
       </c>
       <c r="C75" s="2">
-        <v>241875</v>
+        <v>357610</v>
       </c>
       <c r="D75" s="2">
-        <v>9995</v>
+        <v>14802</v>
       </c>
       <c r="E75" s="4">
         <v>2017</v>
@@ -2994,16 +3229,16 @@
     </row>
     <row r="76" spans="1:10" ht="21">
       <c r="A76" s="5" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B76" s="2">
-        <v>77459</v>
+        <v>114116</v>
       </c>
       <c r="C76" s="2">
-        <v>71736</v>
+        <v>105630</v>
       </c>
       <c r="D76" s="2">
-        <v>5723</v>
+        <v>8486</v>
       </c>
       <c r="E76" s="4">
         <v>2017</v>
@@ -3018,16 +3253,16 @@
     </row>
     <row r="77" spans="1:10" ht="21">
       <c r="A77" s="5" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B77" s="2">
-        <v>111021</v>
+        <v>163911</v>
       </c>
       <c r="C77" s="2">
-        <v>74690</v>
+        <v>110634</v>
       </c>
       <c r="D77" s="2">
-        <v>36331</v>
+        <v>53277</v>
       </c>
       <c r="E77" s="4">
         <v>2017</v>
@@ -3042,16 +3277,16 @@
     </row>
     <row r="78" spans="1:10" ht="21">
       <c r="A78" s="5" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="B78" s="2">
-        <v>75910</v>
+        <v>112269</v>
       </c>
       <c r="C78" s="2">
-        <v>62779</v>
+        <v>92811</v>
       </c>
       <c r="D78" s="2">
-        <v>13131</v>
+        <v>19457</v>
       </c>
       <c r="E78" s="4">
         <v>2017</v>
@@ -3066,16 +3301,16 @@
     </row>
     <row r="79" spans="1:10" ht="21">
       <c r="A79" s="5" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="B79" s="2">
-        <v>14610</v>
+        <v>21614</v>
       </c>
       <c r="C79" s="2">
-        <v>14530</v>
+        <v>21495</v>
       </c>
       <c r="D79" s="3">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="E79" s="4">
         <v>2017</v>
@@ -3090,16 +3325,16 @@
     </row>
     <row r="80" spans="1:10" ht="21">
       <c r="A80" s="5" t="s">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="B80" s="2">
-        <v>24081</v>
+        <v>35742</v>
       </c>
       <c r="C80" s="2">
-        <v>18404</v>
+        <v>27318</v>
       </c>
       <c r="D80" s="2">
-        <v>5677</v>
+        <v>8424</v>
       </c>
       <c r="E80" s="4">
         <v>2017</v>
@@ -3114,16 +3349,16 @@
     </row>
     <row r="81" spans="1:10" ht="21">
       <c r="A81" s="5" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B81" s="2">
-        <v>90100</v>
+        <v>133349</v>
       </c>
       <c r="C81" s="2">
-        <v>51834</v>
+        <v>76608</v>
       </c>
       <c r="D81" s="2">
-        <v>38266</v>
+        <v>56741</v>
       </c>
       <c r="E81" s="4">
         <v>2017</v>
@@ -3138,16 +3373,16 @@
     </row>
     <row r="82" spans="1:10" ht="21">
       <c r="A82" s="5" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B82" s="2">
-        <v>38118</v>
+        <v>56367</v>
       </c>
       <c r="C82" s="2">
-        <v>36723</v>
+        <v>54298</v>
       </c>
       <c r="D82" s="2">
-        <v>1395</v>
+        <v>2069</v>
       </c>
       <c r="E82" s="4">
         <v>2017</v>
@@ -3162,16 +3397,16 @@
     </row>
     <row r="83" spans="1:10" ht="21">
       <c r="A83" s="5" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="B83" s="2">
-        <v>208234</v>
+        <v>308356</v>
       </c>
       <c r="C83" s="2">
-        <v>167796</v>
+        <v>248295</v>
       </c>
       <c r="D83" s="2">
-        <v>40438</v>
+        <v>60061</v>
       </c>
       <c r="E83" s="4">
         <v>2017</v>
@@ -3186,16 +3421,16 @@
     </row>
     <row r="84" spans="1:10" ht="21">
       <c r="A84" s="5" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B84" s="2">
-        <v>117557</v>
+        <v>173823</v>
       </c>
       <c r="C84" s="2">
-        <v>87155</v>
+        <v>128770</v>
       </c>
       <c r="D84" s="2">
-        <v>30402</v>
+        <v>45053</v>
       </c>
       <c r="E84" s="4">
         <v>2017</v>
@@ -3210,16 +3445,16 @@
     </row>
     <row r="85" spans="1:10" ht="21">
       <c r="A85" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B85" s="2">
-        <v>25247</v>
+        <v>37359</v>
       </c>
       <c r="C85" s="2">
-        <v>12876</v>
+        <v>19021</v>
       </c>
       <c r="D85" s="2">
-        <v>12371</v>
+        <v>18339</v>
       </c>
       <c r="E85" s="4">
         <v>2017</v>
@@ -3234,16 +3469,16 @@
     </row>
     <row r="86" spans="1:10" ht="21">
       <c r="A86" s="5" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="B86" s="2">
-        <v>9290</v>
+        <v>13754</v>
       </c>
       <c r="C86" s="2">
-        <v>7121</v>
+        <v>10545</v>
       </c>
       <c r="D86" s="2">
-        <v>2169</v>
+        <v>3208</v>
       </c>
       <c r="E86" s="4">
         <v>2017</v>
@@ -3258,16 +3493,16 @@
     </row>
     <row r="87" spans="1:10" ht="21">
       <c r="A87" s="5" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B87" s="2">
-        <v>725667</v>
+        <v>1072842</v>
       </c>
       <c r="C87" s="2">
-        <v>630338</v>
+        <v>931536</v>
       </c>
       <c r="D87" s="2">
-        <v>95329</v>
+        <v>141307</v>
       </c>
       <c r="E87" s="4">
         <v>2017</v>
@@ -3282,16 +3517,16 @@
     </row>
     <row r="88" spans="1:10" ht="21">
       <c r="A88" s="5" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B88" s="2">
-        <v>9554</v>
+        <v>14159</v>
       </c>
       <c r="C88" s="2">
-        <v>9551</v>
+        <v>14154</v>
       </c>
       <c r="D88" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E88" s="4">
         <v>2017</v>
@@ -3306,16 +3541,16 @@
     </row>
     <row r="89" spans="1:10" ht="21">
       <c r="A89" s="5" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B89" s="2">
-        <v>7461</v>
+        <v>11041</v>
       </c>
       <c r="C89" s="2">
-        <v>5908</v>
+        <v>8740</v>
       </c>
       <c r="D89" s="2">
-        <v>1552</v>
+        <v>2301</v>
       </c>
       <c r="E89" s="4">
         <v>2017</v>
@@ -3330,16 +3565,16 @@
     </row>
     <row r="90" spans="1:10" ht="21">
       <c r="A90" s="5" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B90" s="3">
-        <v>422</v>
+        <v>624</v>
       </c>
       <c r="C90" s="3">
-        <v>422</v>
+        <v>624</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E90" s="4">
         <v>2017</v>
@@ -3354,16 +3589,16 @@
     </row>
     <row r="91" spans="1:10" ht="21">
       <c r="A91" s="5" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="B91" s="2">
-        <v>115966</v>
+        <v>171537</v>
       </c>
       <c r="C91" s="2">
-        <v>108196</v>
+        <v>160005</v>
       </c>
       <c r="D91" s="2">
-        <v>7770</v>
+        <v>11532</v>
       </c>
       <c r="E91" s="4">
         <v>2017</v>
@@ -3378,16 +3613,16 @@
     </row>
     <row r="92" spans="1:10" ht="21">
       <c r="A92" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="B92" s="2">
-        <v>1970</v>
+        <v>2911</v>
       </c>
       <c r="C92" s="2">
-        <v>1844</v>
+        <v>2724</v>
       </c>
       <c r="D92" s="3">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="E92" s="4">
         <v>2017</v>
@@ -3402,16 +3637,16 @@
     </row>
     <row r="93" spans="1:10" ht="21">
       <c r="A93" s="5" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B93" s="2">
-        <v>22151</v>
+        <v>32734</v>
       </c>
       <c r="C93" s="2">
-        <v>16963</v>
+        <v>25041</v>
       </c>
       <c r="D93" s="2">
-        <v>5188</v>
+        <v>7692</v>
       </c>
       <c r="E93" s="4">
         <v>2017</v>
@@ -3426,16 +3661,16 @@
     </row>
     <row r="94" spans="1:10" ht="21">
       <c r="A94" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2">
-        <v>26556</v>
+        <v>39286</v>
       </c>
       <c r="C94" s="2">
-        <v>26220</v>
+        <v>38786</v>
       </c>
       <c r="D94" s="3">
-        <v>336</v>
+        <v>500</v>
       </c>
       <c r="E94" s="4">
         <v>2017</v>
@@ -3450,16 +3685,16 @@
     </row>
     <row r="95" spans="1:10" ht="21">
       <c r="A95" s="5" t="s">
-        <v>231</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2">
-        <v>2152285</v>
+        <v>3187121</v>
       </c>
       <c r="C95" s="2">
-        <v>865617</v>
+        <v>1280116</v>
       </c>
       <c r="D95" s="2">
-        <v>1286669</v>
+        <v>1907005</v>
       </c>
       <c r="E95" s="4">
         <v>2017</v>
@@ -3474,16 +3709,16 @@
     </row>
     <row r="96" spans="1:10" ht="21">
       <c r="A96" s="5" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B96" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C96" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E96" s="4">
         <v>2017</v>
@@ -3498,16 +3733,16 @@
     </row>
     <row r="97" spans="1:10" ht="21">
       <c r="A97" s="5" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2">
-        <v>147989</v>
+        <v>219476</v>
       </c>
       <c r="C97" s="2">
-        <v>119846</v>
+        <v>177660</v>
       </c>
       <c r="D97" s="2">
-        <v>28143</v>
+        <v>41815</v>
       </c>
       <c r="E97" s="4">
         <v>2017</v>
@@ -3522,16 +3757,16 @@
     </row>
     <row r="98" spans="1:10" ht="21">
       <c r="A98" s="5" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="B98" s="2">
-        <v>208895</v>
+        <v>308964</v>
       </c>
       <c r="C98" s="2">
-        <v>189740</v>
+        <v>280569</v>
       </c>
       <c r="D98" s="2">
-        <v>19155</v>
+        <v>28395</v>
       </c>
       <c r="E98" s="4">
         <v>2017</v>
@@ -3546,16 +3781,16 @@
     </row>
     <row r="99" spans="1:10" ht="21">
       <c r="A99" s="5" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B99" s="2">
-        <v>107550</v>
+        <v>159040</v>
       </c>
       <c r="C99" s="2">
-        <v>102056</v>
+        <v>150898</v>
       </c>
       <c r="D99" s="2">
-        <v>5494</v>
+        <v>8143</v>
       </c>
       <c r="E99" s="4">
         <v>2017</v>
@@ -3570,16 +3805,16 @@
     </row>
     <row r="100" spans="1:10" ht="21">
       <c r="A100" s="5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B100" s="2">
-        <v>83337</v>
+        <v>123335</v>
       </c>
       <c r="C100" s="2">
-        <v>72027</v>
+        <v>106439</v>
       </c>
       <c r="D100" s="2">
-        <v>11309</v>
+        <v>16896</v>
       </c>
       <c r="E100" s="4">
         <v>2017</v>
@@ -3594,16 +3829,16 @@
     </row>
     <row r="101" spans="1:10" ht="21">
       <c r="A101" s="5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="B101" s="2">
-        <v>42019</v>
+        <v>62172</v>
       </c>
       <c r="C101" s="2">
-        <v>40263</v>
+        <v>59567</v>
       </c>
       <c r="D101" s="2">
-        <v>1756</v>
+        <v>2605</v>
       </c>
       <c r="E101" s="4">
         <v>2017</v>
@@ -3618,16 +3853,16 @@
     </row>
     <row r="102" spans="1:10" ht="21">
       <c r="A102" s="5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B102" s="2">
-        <v>14152</v>
+        <v>21003</v>
       </c>
       <c r="C102" s="2">
-        <v>11361</v>
+        <v>16865</v>
       </c>
       <c r="D102" s="2">
-        <v>2791</v>
+        <v>4138</v>
       </c>
       <c r="E102" s="4">
         <v>2017</v>
@@ -3642,16 +3877,16 @@
     </row>
     <row r="103" spans="1:10" ht="21">
       <c r="A103" s="5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B103" s="2">
-        <v>225882</v>
+        <v>334445</v>
       </c>
       <c r="C103" s="2">
-        <v>55498</v>
+        <v>81944</v>
       </c>
       <c r="D103" s="2">
-        <v>170385</v>
+        <v>252501</v>
       </c>
       <c r="E103" s="4">
         <v>2017</v>
@@ -3666,16 +3901,16 @@
     </row>
     <row r="104" spans="1:10" ht="21">
       <c r="A104" s="5" t="s">
-        <v>232</v>
+        <v>108</v>
       </c>
       <c r="B104" s="2">
-        <v>224252</v>
+        <v>331991</v>
       </c>
       <c r="C104" s="2">
-        <v>43647</v>
+        <v>64481</v>
       </c>
       <c r="D104" s="2">
-        <v>180605</v>
+        <v>267510</v>
       </c>
       <c r="E104" s="4">
         <v>2017</v>
@@ -3690,16 +3925,16 @@
     </row>
     <row r="105" spans="1:10" ht="21">
       <c r="A105" s="5" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B105" s="2">
-        <v>32452</v>
+        <v>48065</v>
       </c>
       <c r="C105" s="2">
-        <v>21529</v>
+        <v>31862</v>
       </c>
       <c r="D105" s="2">
-        <v>10923</v>
+        <v>16203</v>
       </c>
       <c r="E105" s="4">
         <v>2017</v>
@@ -3714,16 +3949,16 @@
     </row>
     <row r="106" spans="1:10" ht="21">
       <c r="A106" s="5" t="s">
-        <v>233</v>
+        <v>110</v>
       </c>
       <c r="B106" s="2">
-        <v>4888</v>
+        <v>7227</v>
       </c>
       <c r="C106" s="2">
-        <v>3937</v>
-      </c>
-      <c r="D106" s="3">
-        <v>952</v>
+        <v>5821</v>
+      </c>
+      <c r="D106" s="2">
+        <v>1406</v>
       </c>
       <c r="E106" s="4">
         <v>2017</v>
@@ -3738,16 +3973,16 @@
     </row>
     <row r="107" spans="1:10" ht="21">
       <c r="A107" s="5" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2">
-        <v>1625</v>
+        <v>2409</v>
       </c>
       <c r="C107" s="2">
-        <v>1625</v>
+        <v>2409</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E107" s="4">
         <v>2017</v>
@@ -3762,16 +3997,16 @@
     </row>
     <row r="108" spans="1:10" ht="21">
       <c r="A108" s="5" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B108" s="2">
-        <v>1168</v>
+        <v>1729</v>
       </c>
       <c r="C108" s="2">
-        <v>1057</v>
+        <v>1564</v>
       </c>
       <c r="D108" s="3">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="E108" s="4">
         <v>2017</v>
@@ -3786,16 +4021,16 @@
     </row>
     <row r="109" spans="1:10" ht="21">
       <c r="A109" s="5" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2">
-        <v>11655</v>
+        <v>17278</v>
       </c>
       <c r="C109" s="2">
-        <v>1498</v>
+        <v>2219</v>
       </c>
       <c r="D109" s="2">
-        <v>10158</v>
+        <v>15059</v>
       </c>
       <c r="E109" s="4">
         <v>2017</v>
@@ -3810,13 +4045,13 @@
     </row>
     <row r="110" spans="1:10" ht="21">
       <c r="A110" s="5" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="B110" s="2">
-        <v>2111</v>
+        <v>3120</v>
       </c>
       <c r="C110" s="2">
-        <v>2111</v>
+        <v>3120</v>
       </c>
       <c r="D110" s="3">
         <v>0</v>
@@ -3834,16 +4069,16 @@
     </row>
     <row r="111" spans="1:10" ht="21">
       <c r="A111" s="5" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2">
-        <v>69609</v>
+        <v>103195</v>
       </c>
       <c r="C111" s="2">
-        <v>1924</v>
+        <v>2848</v>
       </c>
       <c r="D111" s="2">
-        <v>67685</v>
+        <v>100347</v>
       </c>
       <c r="E111" s="4">
         <v>2017</v>
@@ -3858,13 +4093,13 @@
     </row>
     <row r="112" spans="1:10" ht="21">
       <c r="A112" s="5" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B112" s="3">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="C112" s="3">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D112" s="3">
         <v>1</v>
@@ -3882,16 +4117,16 @@
     </row>
     <row r="113" spans="1:10" ht="21">
       <c r="A113" s="5" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2">
-        <v>1436588</v>
+        <v>2131054</v>
       </c>
       <c r="C113" s="2">
-        <v>1011653</v>
+        <v>1498151</v>
       </c>
       <c r="D113" s="2">
-        <v>424934</v>
+        <v>632903</v>
       </c>
       <c r="E113" s="4">
         <v>2017</v>
@@ -3906,16 +4141,16 @@
     </row>
     <row r="114" spans="1:10" ht="21">
       <c r="A114" s="5" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2">
-        <v>637713</v>
+        <v>946713</v>
       </c>
       <c r="C114" s="2">
-        <v>397543</v>
+        <v>588843</v>
       </c>
       <c r="D114" s="2">
-        <v>240170</v>
+        <v>357871</v>
       </c>
       <c r="E114" s="4">
         <v>2017</v>
@@ -3930,16 +4165,16 @@
     </row>
     <row r="115" spans="1:10" ht="21">
       <c r="A115" s="5" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="B115" s="2">
-        <v>4845905</v>
+        <v>7179224</v>
       </c>
       <c r="C115" s="2">
-        <v>3718715</v>
+        <v>5502908</v>
       </c>
       <c r="D115" s="2">
-        <v>1127190</v>
+        <v>1676315</v>
       </c>
       <c r="E115" s="4">
         <v>2017</v>
@@ -3954,16 +4189,16 @@
     </row>
     <row r="116" spans="1:10" ht="21">
       <c r="A116" s="5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2">
-        <v>10434346</v>
+        <v>15541009</v>
       </c>
       <c r="C116" s="2">
-        <v>4294941</v>
+        <v>6367308</v>
       </c>
       <c r="D116" s="2">
-        <v>6139405</v>
+        <v>9173701</v>
       </c>
       <c r="E116" s="4">
         <v>2017</v>
@@ -3978,16 +4213,16 @@
     </row>
     <row r="117" spans="1:10" ht="21">
       <c r="A117" s="5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="B117" s="2">
-        <v>3578690</v>
+        <v>5316260</v>
       </c>
       <c r="C117" s="2">
-        <v>1758160</v>
+        <v>2604179</v>
       </c>
       <c r="D117" s="2">
-        <v>1820530</v>
+        <v>2712081</v>
       </c>
       <c r="E117" s="4">
         <v>2017</v>
@@ -4002,16 +4237,16 @@
     </row>
     <row r="118" spans="1:10" ht="21">
       <c r="A118" s="5" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B118" s="2">
-        <v>656233</v>
+        <v>973307</v>
       </c>
       <c r="C118" s="2">
-        <v>186837</v>
+        <v>276665</v>
       </c>
       <c r="D118" s="2">
-        <v>469396</v>
+        <v>696643</v>
       </c>
       <c r="E118" s="4">
         <v>2017</v>
@@ -4026,16 +4261,16 @@
     </row>
     <row r="119" spans="1:10" ht="21">
       <c r="A119" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B119" s="2">
-        <v>3216358</v>
+        <v>4784192</v>
       </c>
       <c r="C119" s="2">
-        <v>1844303</v>
+        <v>2734403</v>
       </c>
       <c r="D119" s="2">
-        <v>1372055</v>
+        <v>2049789</v>
       </c>
       <c r="E119" s="4">
         <v>2017</v>
@@ -4050,16 +4285,16 @@
     </row>
     <row r="120" spans="1:10" ht="21">
       <c r="A120" s="5" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B120" s="2">
-        <v>52230</v>
+        <v>77606</v>
       </c>
       <c r="C120" s="2">
-        <v>34009</v>
+        <v>50429</v>
       </c>
       <c r="D120" s="2">
-        <v>18222</v>
+        <v>27177</v>
       </c>
       <c r="E120" s="4">
         <v>2017</v>
@@ -4074,16 +4309,16 @@
     </row>
     <row r="121" spans="1:10" ht="21">
       <c r="A121" s="5" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B121" s="2">
-        <v>4646055</v>
+        <v>6882432</v>
       </c>
       <c r="C121" s="2">
-        <v>3954261</v>
+        <v>5852789</v>
       </c>
       <c r="D121" s="2">
-        <v>691794</v>
+        <v>1029644</v>
       </c>
       <c r="E121" s="4">
         <v>2017</v>
@@ -4098,16 +4333,16 @@
     </row>
     <row r="122" spans="1:10" ht="21">
       <c r="A122" s="5" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="B122" s="2">
-        <v>294706</v>
+        <v>436539</v>
       </c>
       <c r="C122" s="2">
-        <v>269522</v>
+        <v>398828</v>
       </c>
       <c r="D122" s="2">
-        <v>25185</v>
+        <v>37711</v>
       </c>
       <c r="E122" s="4">
         <v>2017</v>
@@ -4122,16 +4357,16 @@
     </row>
     <row r="123" spans="1:10" ht="21">
       <c r="A123" s="5" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B123" s="2">
-        <v>346507</v>
+        <v>514307</v>
       </c>
       <c r="C123" s="2">
-        <v>222765</v>
+        <v>329937</v>
       </c>
       <c r="D123" s="2">
-        <v>123742</v>
+        <v>184370</v>
       </c>
       <c r="E123" s="4">
         <v>2017</v>
@@ -4146,16 +4381,16 @@
     </row>
     <row r="124" spans="1:10" ht="21">
       <c r="A124" s="5" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B124" s="2">
-        <v>2006123</v>
+        <v>2977526</v>
       </c>
       <c r="C124" s="2">
-        <v>1525621</v>
+        <v>2260515</v>
       </c>
       <c r="D124" s="2">
-        <v>480502</v>
+        <v>717011</v>
       </c>
       <c r="E124" s="4">
         <v>2017</v>
@@ -4170,16 +4405,16 @@
     </row>
     <row r="125" spans="1:10" ht="21">
       <c r="A125" s="5" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B125" s="2">
-        <v>32455</v>
+        <v>47993</v>
       </c>
       <c r="C125" s="2">
-        <v>26096</v>
+        <v>38599</v>
       </c>
       <c r="D125" s="2">
-        <v>6359</v>
+        <v>9394</v>
       </c>
       <c r="E125" s="4">
         <v>2017</v>
@@ -4194,16 +4429,16 @@
     </row>
     <row r="126" spans="1:10" ht="21">
       <c r="A126" s="5" t="s">
-        <v>234</v>
+        <v>130</v>
       </c>
       <c r="B126" s="3">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C126" s="3">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="D126" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E126" s="4">
         <v>2017</v>
@@ -4218,16 +4453,16 @@
     </row>
     <row r="127" spans="1:10" ht="21">
       <c r="A127" s="5" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="B127" s="2">
-        <v>531789</v>
+        <v>794117</v>
       </c>
       <c r="C127" s="2">
-        <v>154345</v>
+        <v>229443</v>
       </c>
       <c r="D127" s="2">
-        <v>377445</v>
+        <v>564673</v>
       </c>
       <c r="E127" s="4">
         <v>2017</v>
@@ -4242,16 +4477,16 @@
     </row>
     <row r="128" spans="1:10" ht="21">
       <c r="A128" s="5" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B128" s="2">
-        <v>137414</v>
+        <v>204000</v>
       </c>
       <c r="C128" s="2">
-        <v>72818</v>
+        <v>107934</v>
       </c>
       <c r="D128" s="2">
-        <v>64596</v>
+        <v>96066</v>
       </c>
       <c r="E128" s="4">
         <v>2017</v>
@@ -4266,16 +4501,16 @@
     </row>
     <row r="129" spans="1:10" ht="21">
       <c r="A129" s="5" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2">
-        <v>406763</v>
+        <v>604564</v>
       </c>
       <c r="C129" s="2">
-        <v>177593</v>
+        <v>263167</v>
       </c>
       <c r="D129" s="2">
-        <v>229170</v>
+        <v>341396</v>
       </c>
       <c r="E129" s="4">
         <v>2017</v>
@@ -4290,13 +4525,13 @@
     </row>
     <row r="130" spans="1:10" ht="21">
       <c r="A130" s="5" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B130" s="3">
-        <v>291</v>
+        <v>431</v>
       </c>
       <c r="C130" s="3">
-        <v>291</v>
+        <v>431</v>
       </c>
       <c r="D130" s="3">
         <v>0</v>
@@ -4314,16 +4549,16 @@
     </row>
     <row r="131" spans="1:10" ht="21">
       <c r="A131" s="5" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B131" s="2">
-        <v>579808</v>
+        <v>861032</v>
       </c>
       <c r="C131" s="2">
-        <v>357404</v>
+        <v>529472</v>
       </c>
       <c r="D131" s="2">
-        <v>222404</v>
+        <v>331559</v>
       </c>
       <c r="E131" s="4">
         <v>2017</v>
@@ -4338,16 +4573,16 @@
     </row>
     <row r="132" spans="1:10" ht="21">
       <c r="A132" s="5" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2">
-        <v>14355</v>
+        <v>21276</v>
       </c>
       <c r="C132" s="2">
-        <v>7329</v>
+        <v>10850</v>
       </c>
       <c r="D132" s="2">
-        <v>7026</v>
+        <v>10426</v>
       </c>
       <c r="E132" s="4">
         <v>2017</v>
@@ -4362,16 +4597,16 @@
     </row>
     <row r="133" spans="1:10" ht="21">
       <c r="A133" s="5" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="B133" s="2">
-        <v>11620</v>
+        <v>17180</v>
       </c>
       <c r="C133" s="2">
-        <v>3127</v>
+        <v>4630</v>
       </c>
       <c r="D133" s="2">
-        <v>8493</v>
+        <v>12550</v>
       </c>
       <c r="E133" s="4">
         <v>2017</v>
@@ -4386,16 +4621,16 @@
     </row>
     <row r="134" spans="1:10" ht="21">
       <c r="A134" s="5" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="B134" s="2">
-        <v>106191</v>
+        <v>157235</v>
       </c>
       <c r="C134" s="2">
-        <v>83276</v>
+        <v>123235</v>
       </c>
       <c r="D134" s="2">
-        <v>22915</v>
+        <v>34000</v>
       </c>
       <c r="E134" s="4">
         <v>2017</v>
@@ -4410,16 +4645,16 @@
     </row>
     <row r="135" spans="1:10" ht="21">
       <c r="A135" s="5" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="B135" s="2">
-        <v>1017</v>
+        <v>1508</v>
       </c>
       <c r="C135" s="3">
-        <v>645</v>
+        <v>952</v>
       </c>
       <c r="D135" s="3">
-        <v>372</v>
+        <v>556</v>
       </c>
       <c r="E135" s="4">
         <v>2017</v>
@@ -4434,16 +4669,16 @@
     </row>
     <row r="136" spans="1:10" ht="21">
       <c r="A136" s="5" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2">
-        <v>303680</v>
+        <v>450332</v>
       </c>
       <c r="C136" s="2">
-        <v>145455</v>
+        <v>215299</v>
       </c>
       <c r="D136" s="2">
-        <v>158225</v>
+        <v>235032</v>
       </c>
       <c r="E136" s="4">
         <v>2017</v>
@@ -4458,16 +4693,16 @@
     </row>
     <row r="137" spans="1:10" ht="21">
       <c r="A137" s="5" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>1365795</v>
+        <v>2025570</v>
       </c>
       <c r="C137" s="2">
-        <v>1166225</v>
+        <v>1727419</v>
       </c>
       <c r="D137" s="2">
-        <v>199570</v>
+        <v>298151</v>
       </c>
       <c r="E137" s="4">
         <v>2017</v>
@@ -4482,16 +4717,16 @@
     </row>
     <row r="138" spans="1:10" ht="21">
       <c r="A138" s="5" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B138" s="2">
-        <v>368460</v>
+        <v>547150</v>
       </c>
       <c r="C138" s="2">
-        <v>218320</v>
+        <v>323739</v>
       </c>
       <c r="D138" s="2">
-        <v>150141</v>
+        <v>223411</v>
       </c>
       <c r="E138" s="4">
         <v>2017</v>
@@ -4506,16 +4741,16 @@
     </row>
     <row r="139" spans="1:10" ht="21">
       <c r="A139" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="B139" s="3">
-        <v>399</v>
+        <v>593</v>
       </c>
       <c r="C139" s="3">
-        <v>340</v>
+        <v>504</v>
       </c>
       <c r="D139" s="3">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="E139" s="4">
         <v>2017</v>
@@ -4530,16 +4765,16 @@
     </row>
     <row r="140" spans="1:10" ht="21">
       <c r="A140" s="5" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B140" s="2">
-        <v>905808</v>
+        <v>1345222</v>
       </c>
       <c r="C140" s="2">
-        <v>445527</v>
+        <v>659531</v>
       </c>
       <c r="D140" s="2">
-        <v>460281</v>
+        <v>685690</v>
       </c>
       <c r="E140" s="4">
         <v>2017</v>
@@ -4554,16 +4789,16 @@
     </row>
     <row r="141" spans="1:10" ht="21">
       <c r="A141" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="B141" s="2">
-        <v>1315153</v>
+        <v>1947389</v>
       </c>
       <c r="C141" s="2">
-        <v>177624</v>
+        <v>262788</v>
       </c>
       <c r="D141" s="2">
-        <v>1137529</v>
+        <v>1684601</v>
       </c>
       <c r="E141" s="4">
         <v>2017</v>
@@ -4578,16 +4813,16 @@
     </row>
     <row r="142" spans="1:10" ht="21">
       <c r="A142" s="5" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2">
-        <v>66684</v>
+        <v>98972</v>
       </c>
       <c r="C142" s="2">
-        <v>53677</v>
+        <v>79482</v>
       </c>
       <c r="D142" s="2">
-        <v>13007</v>
+        <v>19490</v>
       </c>
       <c r="E142" s="4">
         <v>2017</v>
@@ -4602,16 +4837,16 @@
     </row>
     <row r="143" spans="1:10" ht="21">
       <c r="A143" s="5" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2">
-        <v>77756</v>
+        <v>115229</v>
       </c>
       <c r="C143" s="2">
-        <v>68600</v>
+        <v>101536</v>
       </c>
       <c r="D143" s="2">
-        <v>9156</v>
+        <v>13693</v>
       </c>
       <c r="E143" s="4">
         <v>2017</v>
@@ -4626,16 +4861,16 @@
     </row>
     <row r="144" spans="1:10" ht="21">
       <c r="A144" s="5" t="s">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2">
-        <v>118466</v>
+        <v>175546</v>
       </c>
       <c r="C144" s="2">
-        <v>102029</v>
+        <v>151012</v>
       </c>
       <c r="D144" s="2">
-        <v>16437</v>
+        <v>24534</v>
       </c>
       <c r="E144" s="4">
         <v>2017</v>
@@ -4650,16 +4885,16 @@
     </row>
     <row r="145" spans="1:10" ht="21">
       <c r="A145" s="5" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="B145" s="2">
-        <v>57986</v>
+        <v>85722</v>
       </c>
       <c r="C145" s="2">
-        <v>55384</v>
+        <v>81864</v>
       </c>
       <c r="D145" s="2">
-        <v>2602</v>
+        <v>3859</v>
       </c>
       <c r="E145" s="4">
         <v>2017</v>
@@ -4674,16 +4909,16 @@
     </row>
     <row r="146" spans="1:10" ht="21">
       <c r="A146" s="5" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2">
-        <v>33638</v>
+        <v>49787</v>
       </c>
       <c r="C146" s="2">
-        <v>10501</v>
+        <v>15537</v>
       </c>
       <c r="D146" s="2">
-        <v>23138</v>
+        <v>34249</v>
       </c>
       <c r="E146" s="4">
         <v>2017</v>
@@ -4698,16 +4933,16 @@
     </row>
     <row r="147" spans="1:10" ht="21">
       <c r="A147" s="5" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2">
-        <v>67128</v>
+        <v>99444</v>
       </c>
       <c r="C147" s="2">
-        <v>23853</v>
+        <v>35287</v>
       </c>
       <c r="D147" s="2">
-        <v>43275</v>
+        <v>64157</v>
       </c>
       <c r="E147" s="4">
         <v>2017</v>
@@ -4722,16 +4957,16 @@
     </row>
     <row r="148" spans="1:10" ht="21">
       <c r="A148" s="5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2">
-        <v>100866</v>
+        <v>149271</v>
       </c>
       <c r="C148" s="2">
-        <v>67717</v>
+        <v>100222</v>
       </c>
       <c r="D148" s="2">
-        <v>33149</v>
+        <v>49049</v>
       </c>
       <c r="E148" s="4">
         <v>2017</v>
@@ -4746,16 +4981,16 @@
     </row>
     <row r="149" spans="1:10" ht="21">
       <c r="A149" s="5" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B149" s="2">
-        <v>7726</v>
+        <v>11460</v>
       </c>
       <c r="C149" s="2">
-        <v>5485</v>
+        <v>8115</v>
       </c>
       <c r="D149" s="2">
-        <v>2240</v>
+        <v>3345</v>
       </c>
       <c r="E149" s="4">
         <v>2017</v>
@@ -4770,16 +5005,16 @@
     </row>
     <row r="150" spans="1:10" ht="21">
       <c r="A150" s="5" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="B150" s="2">
-        <v>4918754</v>
+        <v>7280956</v>
       </c>
       <c r="C150" s="2">
-        <v>2978368</v>
+        <v>4405449</v>
       </c>
       <c r="D150" s="2">
-        <v>1940386</v>
+        <v>2875507</v>
       </c>
       <c r="E150" s="4">
         <v>2017</v>
@@ -4794,16 +5029,16 @@
     </row>
     <row r="151" spans="1:10" ht="21">
       <c r="A151" s="5" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="B151" s="2">
-        <v>474052</v>
+        <v>701637</v>
       </c>
       <c r="C151" s="2">
-        <v>299249</v>
+        <v>442766</v>
       </c>
       <c r="D151" s="2">
-        <v>174803</v>
+        <v>258871</v>
       </c>
       <c r="E151" s="4">
         <v>2017</v>
@@ -4818,16 +5053,16 @@
     </row>
     <row r="152" spans="1:10" ht="21">
       <c r="A152" s="5" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="B152" s="2">
-        <v>209587</v>
+        <v>311110</v>
       </c>
       <c r="C152" s="2">
-        <v>177935</v>
+        <v>263804</v>
       </c>
       <c r="D152" s="2">
-        <v>31652</v>
+        <v>47305</v>
       </c>
       <c r="E152" s="4">
         <v>2017</v>
@@ -4842,16 +5077,16 @@
     </row>
     <row r="153" spans="1:10" ht="21">
       <c r="A153" s="5" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="B153" s="2">
-        <v>77738</v>
+        <v>115282</v>
       </c>
       <c r="C153" s="2">
-        <v>67814</v>
+        <v>100407</v>
       </c>
       <c r="D153" s="2">
-        <v>9924</v>
+        <v>14875</v>
       </c>
       <c r="E153" s="4">
         <v>2017</v>
@@ -4866,16 +5101,16 @@
     </row>
     <row r="154" spans="1:10" ht="21">
       <c r="A154" s="5" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="B154" s="2">
-        <v>731144</v>
+        <v>1086588</v>
       </c>
       <c r="C154" s="2">
-        <v>499419</v>
+        <v>739983</v>
       </c>
       <c r="D154" s="2">
-        <v>231725</v>
+        <v>346605</v>
       </c>
       <c r="E154" s="4">
         <v>2017</v>
@@ -4890,16 +5125,16 @@
     </row>
     <row r="155" spans="1:10" ht="21">
       <c r="A155" s="5" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="B155" s="2">
-        <v>308517</v>
+        <v>457825</v>
       </c>
       <c r="C155" s="2">
-        <v>169903</v>
+        <v>251852</v>
       </c>
       <c r="D155" s="2">
-        <v>138614</v>
+        <v>205972</v>
       </c>
       <c r="E155" s="4">
         <v>2017</v>
@@ -4914,16 +5149,16 @@
     </row>
     <row r="156" spans="1:10" ht="21">
       <c r="A156" s="5" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="B156" s="2">
-        <v>12728</v>
+        <v>18899</v>
       </c>
       <c r="C156" s="2">
-        <v>5576</v>
+        <v>8261</v>
       </c>
       <c r="D156" s="2">
-        <v>7152</v>
+        <v>10638</v>
       </c>
       <c r="E156" s="4">
         <v>2017</v>
@@ -4938,16 +5173,16 @@
     </row>
     <row r="157" spans="1:10" ht="21">
       <c r="A157" s="5" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="B157" s="2">
-        <v>9262</v>
+        <v>13806</v>
       </c>
       <c r="C157" s="2">
-        <v>4604</v>
+        <v>6827</v>
       </c>
       <c r="D157" s="2">
-        <v>4658</v>
+        <v>6979</v>
       </c>
       <c r="E157" s="4">
         <v>2017</v>
@@ -4962,7 +5197,7 @@
     </row>
     <row r="158" spans="1:10" ht="21">
       <c r="A158" s="5" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="B158" s="3">
         <v>0</v>
@@ -4971,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E158" s="4">
         <v>2017</v>
@@ -4986,16 +5221,16 @@
     </row>
     <row r="159" spans="1:10" ht="21">
       <c r="A159" s="5" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="B159" s="2">
-        <v>5611</v>
+        <v>8319</v>
       </c>
       <c r="C159" s="3">
-        <v>285</v>
+        <v>423</v>
       </c>
       <c r="D159" s="2">
-        <v>5325</v>
+        <v>7896</v>
       </c>
       <c r="E159" s="4">
         <v>2017</v>
@@ -5010,16 +5245,16 @@
     </row>
     <row r="160" spans="1:10" ht="21">
       <c r="A160" s="5" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2">
-        <v>46764</v>
+        <v>69487</v>
       </c>
       <c r="C160" s="2">
-        <v>35458</v>
+        <v>52625</v>
       </c>
       <c r="D160" s="2">
-        <v>11306</v>
+        <v>16862</v>
       </c>
       <c r="E160" s="4">
         <v>2017</v>
@@ -5034,16 +5269,16 @@
     </row>
     <row r="161" spans="1:10" ht="21">
       <c r="A161" s="5" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>4494</v>
+        <v>6655</v>
       </c>
       <c r="C161" s="2">
-        <v>4325</v>
+        <v>6401</v>
       </c>
       <c r="D161" s="3">
-        <v>169</v>
+        <v>254</v>
       </c>
       <c r="E161" s="4">
         <v>2017</v>
@@ -5058,16 +5293,16 @@
     </row>
     <row r="162" spans="1:10" ht="21">
       <c r="A162" s="5" t="s">
-        <v>238</v>
+        <v>166</v>
       </c>
       <c r="B162" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C162" s="3">
         <v>1</v>
       </c>
       <c r="D162" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E162" s="4">
         <v>2017</v>
@@ -5082,16 +5317,16 @@
     </row>
     <row r="163" spans="1:10" ht="21">
       <c r="A163" s="5" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B163" s="2">
-        <v>16488634</v>
+        <v>24395707</v>
       </c>
       <c r="C163" s="2">
-        <v>8417273</v>
+        <v>12443630</v>
       </c>
       <c r="D163" s="2">
-        <v>8071362</v>
+        <v>11952077</v>
       </c>
       <c r="E163" s="4">
         <v>2017</v>
@@ -5106,13 +5341,13 @@
     </row>
     <row r="164" spans="1:10" ht="21">
       <c r="A164" s="5" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="B164" s="2">
-        <v>2769</v>
+        <v>4089</v>
       </c>
       <c r="C164" s="2">
-        <v>2769</v>
+        <v>4087</v>
       </c>
       <c r="D164" s="3">
         <v>1</v>
@@ -5130,16 +5365,16 @@
     </row>
     <row r="165" spans="1:10" ht="21">
       <c r="A165" s="5" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="B165" s="2">
-        <v>1142170</v>
+        <v>1689644</v>
       </c>
       <c r="C165" s="2">
-        <v>658701</v>
+        <v>973214</v>
       </c>
       <c r="D165" s="2">
-        <v>483469</v>
+        <v>716431</v>
       </c>
       <c r="E165" s="4">
         <v>2017</v>
@@ -5154,13 +5389,13 @@
     </row>
     <row r="166" spans="1:10" ht="21">
       <c r="A166" s="5" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="B166" s="2">
-        <v>1555</v>
+        <v>2298</v>
       </c>
       <c r="C166" s="2">
-        <v>1555</v>
+        <v>2298</v>
       </c>
       <c r="D166" s="3">
         <v>0</v>
@@ -5178,16 +5413,16 @@
     </row>
     <row r="167" spans="1:10" ht="21">
       <c r="A167" s="5" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B167" s="2">
-        <v>11231</v>
+        <v>16615</v>
       </c>
       <c r="C167" s="2">
-        <v>11223</v>
+        <v>16602</v>
       </c>
       <c r="D167" s="3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E167" s="4">
         <v>2017</v>
@@ -5202,16 +5437,16 @@
     </row>
     <row r="168" spans="1:10" ht="21">
       <c r="A168" s="5" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="B168" s="2">
-        <v>11795</v>
+        <v>17468</v>
       </c>
       <c r="C168" s="2">
-        <v>9615</v>
+        <v>14235</v>
       </c>
       <c r="D168" s="2">
-        <v>2180</v>
+        <v>3232</v>
       </c>
       <c r="E168" s="4">
         <v>2017</v>
@@ -5226,16 +5461,16 @@
     </row>
     <row r="169" spans="1:10" ht="21">
       <c r="A169" s="5" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="B169" s="2">
-        <v>5777</v>
+        <v>8547</v>
       </c>
       <c r="C169" s="2">
-        <v>5777</v>
+        <v>8546</v>
       </c>
       <c r="D169" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E169" s="4">
         <v>2017</v>
@@ -5250,16 +5485,16 @@
     </row>
     <row r="170" spans="1:10" ht="21">
       <c r="A170" s="5" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B170" s="2">
-        <v>58666</v>
+        <v>86843</v>
       </c>
       <c r="C170" s="2">
-        <v>41363</v>
+        <v>61206</v>
       </c>
       <c r="D170" s="2">
-        <v>17303</v>
+        <v>25636</v>
       </c>
       <c r="E170" s="4">
         <v>2017</v>
@@ -5274,16 +5509,16 @@
     </row>
     <row r="171" spans="1:10" ht="21">
       <c r="A171" s="5" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="B171" s="3">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C171" s="3">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E171" s="4">
         <v>2017</v>
@@ -5298,16 +5533,16 @@
     </row>
     <row r="172" spans="1:10" ht="21">
       <c r="A172" s="5" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="B172" s="2">
-        <v>5684298</v>
+        <v>8410358</v>
       </c>
       <c r="C172" s="2">
-        <v>1904892</v>
+        <v>2815670</v>
       </c>
       <c r="D172" s="2">
-        <v>3779405</v>
+        <v>5594689</v>
       </c>
       <c r="E172" s="4">
         <v>2017</v>
@@ -5322,13 +5557,13 @@
     </row>
     <row r="173" spans="1:10" ht="21">
       <c r="A173" s="5" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="B173" s="2">
-        <v>1267</v>
+        <v>1882</v>
       </c>
       <c r="C173" s="2">
-        <v>1267</v>
+        <v>1882</v>
       </c>
       <c r="D173" s="3">
         <v>0</v>
@@ -5346,16 +5581,16 @@
     </row>
     <row r="174" spans="1:10" ht="21">
       <c r="A174" s="5" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2">
-        <v>1983445</v>
+        <v>2935268</v>
       </c>
       <c r="C174" s="2">
-        <v>874686</v>
+        <v>1293252</v>
       </c>
       <c r="D174" s="2">
-        <v>1108759</v>
+        <v>1642016</v>
       </c>
       <c r="E174" s="4">
         <v>2017</v>
@@ -5370,16 +5605,16 @@
     </row>
     <row r="175" spans="1:10" ht="21">
       <c r="A175" s="5" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="B175" s="2">
-        <v>658258</v>
+        <v>974279</v>
       </c>
       <c r="C175" s="2">
-        <v>445254</v>
+        <v>658490</v>
       </c>
       <c r="D175" s="2">
-        <v>213004</v>
+        <v>315788</v>
       </c>
       <c r="E175" s="4">
         <v>2017</v>
@@ -5394,16 +5629,16 @@
     </row>
     <row r="176" spans="1:10" ht="21">
       <c r="A176" s="5" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="B176" s="2">
-        <v>6979</v>
+        <v>10362</v>
       </c>
       <c r="C176" s="2">
-        <v>6976</v>
+        <v>10358</v>
       </c>
       <c r="D176" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E176" s="4">
         <v>2017</v>
@@ -5418,16 +5653,16 @@
     </row>
     <row r="177" spans="1:10" ht="21">
       <c r="A177" s="5" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="B177" s="2">
-        <v>137337</v>
+        <v>203024</v>
       </c>
       <c r="C177" s="2">
-        <v>89315</v>
+        <v>131967</v>
       </c>
       <c r="D177" s="2">
-        <v>48022</v>
+        <v>71056</v>
       </c>
       <c r="E177" s="4">
         <v>2017</v>
@@ -5442,16 +5677,16 @@
     </row>
     <row r="178" spans="1:10" ht="21">
       <c r="A178" s="5" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="B178" s="2">
-        <v>112225</v>
+        <v>166306</v>
       </c>
       <c r="C178" s="2">
-        <v>88586</v>
+        <v>131046</v>
       </c>
       <c r="D178" s="2">
-        <v>23639</v>
+        <v>35259</v>
       </c>
       <c r="E178" s="4">
         <v>2017</v>
@@ -5466,13 +5701,13 @@
     </row>
     <row r="179" spans="1:10" ht="21">
       <c r="A179" s="5" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="B179" s="2">
-        <v>1596</v>
+        <v>2360</v>
       </c>
       <c r="C179" s="2">
-        <v>1596</v>
+        <v>2360</v>
       </c>
       <c r="D179" s="3">
         <v>0</v>
@@ -5490,16 +5725,16 @@
     </row>
     <row r="180" spans="1:10" ht="21">
       <c r="A180" s="5" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B180" s="2">
-        <v>120575</v>
+        <v>178332</v>
       </c>
       <c r="C180" s="2">
-        <v>102422</v>
+        <v>151399</v>
       </c>
       <c r="D180" s="2">
-        <v>18152</v>
+        <v>26933</v>
       </c>
       <c r="E180" s="4">
         <v>2017</v>
@@ -5514,16 +5749,16 @@
     </row>
     <row r="181" spans="1:10" ht="21">
       <c r="A181" s="5" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="B181" s="2">
-        <v>240076</v>
+        <v>355055</v>
       </c>
       <c r="C181" s="2">
-        <v>184918</v>
+        <v>273311</v>
       </c>
       <c r="D181" s="2">
-        <v>55159</v>
+        <v>81745</v>
       </c>
       <c r="E181" s="4">
         <v>2017</v>
@@ -5538,16 +5773,16 @@
     </row>
     <row r="182" spans="1:10" ht="21">
       <c r="A182" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B182" s="3">
-        <v>797</v>
-      </c>
-      <c r="C182" s="3">
-        <v>794</v>
+        <v>186</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1176</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1171</v>
       </c>
       <c r="D182" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E182" s="4">
         <v>2017</v>
@@ -5562,13 +5797,13 @@
     </row>
     <row r="183" spans="1:10" ht="21">
       <c r="A183" s="5" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B183" s="3">
-        <v>451</v>
+        <v>668</v>
       </c>
       <c r="C183" s="3">
-        <v>451</v>
+        <v>668</v>
       </c>
       <c r="D183" s="3">
         <v>0</v>
@@ -5586,16 +5821,16 @@
     </row>
     <row r="184" spans="1:10" ht="21">
       <c r="A184" s="5" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="B184" s="2">
-        <v>2689</v>
+        <v>3978</v>
       </c>
       <c r="C184" s="2">
-        <v>2689</v>
+        <v>3977</v>
       </c>
       <c r="D184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E184" s="4">
         <v>2017</v>
@@ -5610,16 +5845,16 @@
     </row>
     <row r="185" spans="1:10" ht="21">
       <c r="A185" s="5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="B185" s="2">
-        <v>131245</v>
+        <v>193930</v>
       </c>
       <c r="C185" s="2">
-        <v>125627</v>
+        <v>185605</v>
       </c>
       <c r="D185" s="2">
-        <v>5618</v>
+        <v>8324</v>
       </c>
       <c r="E185" s="4">
         <v>2017</v>
@@ -5634,16 +5869,16 @@
     </row>
     <row r="186" spans="1:10" ht="21">
       <c r="A186" s="5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="B186" s="2">
-        <v>15797</v>
+        <v>23362</v>
       </c>
       <c r="C186" s="2">
-        <v>13249</v>
+        <v>19585</v>
       </c>
       <c r="D186" s="2">
-        <v>2547</v>
+        <v>3777</v>
       </c>
       <c r="E186" s="4">
         <v>2017</v>
@@ -5658,16 +5893,16 @@
     </row>
     <row r="187" spans="1:10" ht="21">
       <c r="A187" s="5" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="B187" s="2">
-        <v>31400</v>
+        <v>46428</v>
       </c>
       <c r="C187" s="2">
-        <v>31217</v>
+        <v>46158</v>
       </c>
       <c r="D187" s="3">
-        <v>183</v>
+        <v>271</v>
       </c>
       <c r="E187" s="4">
         <v>2017</v>
@@ -5682,16 +5917,16 @@
     </row>
     <row r="188" spans="1:10" ht="21">
       <c r="A188" s="5" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="B188" s="2">
-        <v>55910</v>
+        <v>82671</v>
       </c>
       <c r="C188" s="2">
-        <v>54465</v>
+        <v>80530</v>
       </c>
       <c r="D188" s="2">
-        <v>1445</v>
+        <v>2141</v>
       </c>
       <c r="E188" s="4">
         <v>2017</v>
@@ -5706,16 +5941,16 @@
     </row>
     <row r="189" spans="1:10" ht="21">
       <c r="A189" s="5" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B189" s="2">
-        <v>27433</v>
+        <v>40570</v>
       </c>
       <c r="C189" s="2">
-        <v>27265</v>
+        <v>40322</v>
       </c>
       <c r="D189" s="3">
-        <v>168</v>
+        <v>249</v>
       </c>
       <c r="E189" s="4">
         <v>2017</v>
@@ -5730,13 +5965,13 @@
     </row>
     <row r="190" spans="1:10" ht="21">
       <c r="A190" s="5" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B190" s="2">
-        <v>4080</v>
+        <v>6006</v>
       </c>
       <c r="C190" s="2">
-        <v>4080</v>
+        <v>6006</v>
       </c>
       <c r="D190" s="3">
         <v>0</v>
@@ -5754,16 +5989,16 @@
     </row>
     <row r="191" spans="1:10" ht="21">
       <c r="A191" s="5" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="B191" s="2">
-        <v>3108210</v>
+        <v>4598507</v>
       </c>
       <c r="C191" s="2">
-        <v>2392782</v>
+        <v>3538688</v>
       </c>
       <c r="D191" s="2">
-        <v>715428</v>
+        <v>1059819</v>
       </c>
       <c r="E191" s="4">
         <v>2017</v>
@@ -5778,7 +6013,7 @@
     </row>
     <row r="192" spans="1:10" ht="21">
       <c r="A192" s="5" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="B192" s="3">
         <v>0</v>
@@ -5802,16 +6037,16 @@
     </row>
     <row r="193" spans="1:10" ht="21">
       <c r="A193" s="5" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="B193" s="2">
-        <v>39821</v>
+        <v>58822</v>
       </c>
       <c r="C193" s="2">
-        <v>38352</v>
+        <v>56642</v>
       </c>
       <c r="D193" s="2">
-        <v>1469</v>
+        <v>2180</v>
       </c>
       <c r="E193" s="4">
         <v>2017</v>
@@ -5826,16 +6061,16 @@
     </row>
     <row r="194" spans="1:10" ht="21">
       <c r="A194" s="5" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B194" s="2">
-        <v>404938</v>
+        <v>598173</v>
       </c>
       <c r="C194" s="2">
-        <v>400067</v>
+        <v>590954</v>
       </c>
       <c r="D194" s="2">
-        <v>4870</v>
+        <v>7218</v>
       </c>
       <c r="E194" s="4">
         <v>2017</v>
@@ -5850,16 +6085,16 @@
     </row>
     <row r="195" spans="1:10" ht="21">
       <c r="A195" s="5" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B195" s="2">
-        <v>119714</v>
+        <v>176966</v>
       </c>
       <c r="C195" s="2">
-        <v>117541</v>
+        <v>173745</v>
       </c>
       <c r="D195" s="2">
-        <v>2173</v>
+        <v>3220</v>
       </c>
       <c r="E195" s="4">
         <v>2017</v>
@@ -5874,16 +6109,16 @@
     </row>
     <row r="196" spans="1:10" ht="21">
       <c r="A196" s="5" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B196" s="2">
-        <v>1209759</v>
+        <v>1790032</v>
       </c>
       <c r="C196" s="2">
-        <v>410503</v>
+        <v>606635</v>
       </c>
       <c r="D196" s="2">
-        <v>799256</v>
+        <v>1183398</v>
       </c>
       <c r="E196" s="4">
         <v>2017</v>
@@ -5898,16 +6133,16 @@
     </row>
     <row r="197" spans="1:10" ht="21">
       <c r="A197" s="5" t="s">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="B197" s="2">
-        <v>66771</v>
+        <v>98908</v>
       </c>
       <c r="C197" s="2">
-        <v>37253</v>
+        <v>55091</v>
       </c>
       <c r="D197" s="2">
-        <v>29518</v>
+        <v>43817</v>
       </c>
       <c r="E197" s="4">
         <v>2017</v>
@@ -5922,7 +6157,7 @@
     </row>
     <row r="198" spans="1:10" ht="21">
       <c r="A198" s="5" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="B198" s="3">
         <v>0</v>
@@ -5931,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E198" s="4">
         <v>2017</v>
@@ -5946,16 +6181,16 @@
     </row>
     <row r="199" spans="1:10" ht="21">
       <c r="A199" s="5" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B199" s="2">
-        <v>1100</v>
+        <v>1629</v>
       </c>
       <c r="C199" s="2">
-        <v>1098</v>
+        <v>1626</v>
       </c>
       <c r="D199" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199" s="4">
         <v>2017</v>
@@ -5970,13 +6205,13 @@
     </row>
     <row r="200" spans="1:10" ht="21">
       <c r="A200" s="5" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B200" s="3">
-        <v>565</v>
+        <v>835</v>
       </c>
       <c r="C200" s="3">
-        <v>565</v>
+        <v>835</v>
       </c>
       <c r="D200" s="3">
         <v>0</v>
@@ -5994,16 +6229,16 @@
     </row>
     <row r="201" spans="1:10" ht="21">
       <c r="A201" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="B201" s="3">
-        <v>808</v>
-      </c>
-      <c r="C201" s="3">
-        <v>791</v>
+        <v>205</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1196</v>
+      </c>
+      <c r="C201" s="2">
+        <v>1171</v>
       </c>
       <c r="D201" s="3">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E201" s="4">
         <v>2017</v>
@@ -6018,16 +6253,16 @@
     </row>
     <row r="202" spans="1:10" ht="21">
       <c r="A202" s="5" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B202" s="2">
-        <v>67678</v>
+        <v>100102</v>
       </c>
       <c r="C202" s="2">
-        <v>47021</v>
+        <v>69486</v>
       </c>
       <c r="D202" s="2">
-        <v>20656</v>
+        <v>30616</v>
       </c>
       <c r="E202" s="4">
         <v>2017</v>
@@ -6042,16 +6277,16 @@
     </row>
     <row r="203" spans="1:10" ht="21">
       <c r="A203" s="5" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B203" s="2">
-        <v>13850</v>
+        <v>20500</v>
       </c>
       <c r="C203" s="2">
-        <v>11463</v>
+        <v>16961</v>
       </c>
       <c r="D203" s="2">
-        <v>2387</v>
+        <v>3539</v>
       </c>
       <c r="E203" s="4">
         <v>2017</v>
@@ -6066,16 +6301,16 @@
     </row>
     <row r="204" spans="1:10" ht="21">
       <c r="A204" s="5" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B204" s="2">
-        <v>34798</v>
+        <v>51523</v>
       </c>
       <c r="C204" s="2">
-        <v>25838</v>
+        <v>38240</v>
       </c>
       <c r="D204" s="2">
-        <v>8960</v>
+        <v>13284</v>
       </c>
       <c r="E204" s="4">
         <v>2017</v>
@@ -6090,13 +6325,13 @@
     </row>
     <row r="205" spans="1:10" ht="21">
       <c r="A205" s="5" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B205" s="3">
-        <v>94</v>
+        <v>139</v>
       </c>
       <c r="C205" s="3">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="D205" s="3">
         <v>1</v>
@@ -6114,16 +6349,16 @@
     </row>
     <row r="206" spans="1:10" ht="21">
       <c r="A206" s="5" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B206" s="2">
-        <v>465922</v>
+        <v>688872</v>
       </c>
       <c r="C206" s="2">
-        <v>155528</v>
+        <v>229900</v>
       </c>
       <c r="D206" s="2">
-        <v>310394</v>
+        <v>458972</v>
       </c>
       <c r="E206" s="4">
         <v>2017</v>
@@ -6138,16 +6373,16 @@
     </row>
     <row r="207" spans="1:10" ht="21">
       <c r="A207" s="5" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="B207" s="2">
-        <v>500808</v>
+        <v>742104</v>
       </c>
       <c r="C207" s="2">
-        <v>83697</v>
+        <v>123762</v>
       </c>
       <c r="D207" s="2">
-        <v>417111</v>
+        <v>618342</v>
       </c>
       <c r="E207" s="4">
         <v>2017</v>
@@ -6162,13 +6397,13 @@
     </row>
     <row r="208" spans="1:10" ht="21">
       <c r="A208" s="5" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B208" s="3">
-        <v>308</v>
+        <v>455</v>
       </c>
       <c r="C208" s="3">
-        <v>308</v>
+        <v>455</v>
       </c>
       <c r="D208" s="3">
         <v>0</v>
@@ -6186,16 +6421,16 @@
     </row>
     <row r="209" spans="1:10" ht="21">
       <c r="A209" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="B209" s="3">
-        <v>689</v>
+        <v>213</v>
+      </c>
+      <c r="B209" s="2">
+        <v>1019</v>
       </c>
       <c r="C209" s="3">
-        <v>641</v>
+        <v>949</v>
       </c>
       <c r="D209" s="3">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E209" s="4">
         <v>2017</v>
@@ -6210,7 +6445,7 @@
     </row>
     <row r="210" spans="1:10" ht="21">
       <c r="A210" s="5" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B210" s="3">
         <v>0</v>
@@ -6219,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E210" s="4">
         <v>2017</v>
@@ -6234,13 +6469,13 @@
     </row>
     <row r="211" spans="1:10" ht="21">
       <c r="A211" s="5" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="B211" s="2">
-        <v>2811</v>
+        <v>4156</v>
       </c>
       <c r="C211" s="2">
-        <v>2811</v>
+        <v>4156</v>
       </c>
       <c r="D211" s="3">
         <v>0</v>
@@ -6258,16 +6493,16 @@
     </row>
     <row r="212" spans="1:10" ht="21">
       <c r="A212" s="5" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B212" s="3">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C212" s="3">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E212" s="4">
         <v>2017</v>
@@ -6282,16 +6517,16 @@
     </row>
     <row r="213" spans="1:10" ht="21">
       <c r="A213" s="5" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="B213" s="2">
-        <v>38346035</v>
+        <v>56738773</v>
       </c>
       <c r="C213" s="2">
-        <v>28474601</v>
+        <v>42110585</v>
       </c>
       <c r="D213" s="2">
-        <v>9871434</v>
+        <v>14628188</v>
       </c>
       <c r="E213" s="4">
         <v>2017</v>
@@ -6306,16 +6541,16 @@
     </row>
     <row r="214" spans="1:10" ht="21">
       <c r="A214" s="5" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="B214" s="2">
-        <v>3031788</v>
+        <v>4487907</v>
       </c>
       <c r="C214" s="2">
-        <v>1965613</v>
+        <v>2908451</v>
       </c>
       <c r="D214" s="2">
-        <v>1066174</v>
+        <v>1579456</v>
       </c>
       <c r="E214" s="4">
         <v>2017</v>
@@ -6330,16 +6565,16 @@
     </row>
     <row r="215" spans="1:10" ht="21">
       <c r="A215" s="5" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="B215" s="2">
-        <v>35304225</v>
+        <v>52235984</v>
       </c>
       <c r="C215" s="2">
-        <v>26508452</v>
+        <v>39201341</v>
       </c>
       <c r="D215" s="2">
-        <v>8795773</v>
+        <v>13034642</v>
       </c>
       <c r="E215" s="4">
         <v>2017</v>
@@ -6354,16 +6589,16 @@
     </row>
     <row r="216" spans="1:10" ht="21">
       <c r="A216" s="5" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B216" s="2">
-        <v>9497</v>
+        <v>14106</v>
       </c>
       <c r="C216" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D216" s="2">
-        <v>9486</v>
+        <v>14089</v>
       </c>
       <c r="E216" s="4">
         <v>2017</v>
@@ -6378,13 +6613,13 @@
     </row>
     <row r="217" spans="1:10" ht="21">
       <c r="A217" s="5" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="B217" s="3">
-        <v>512</v>
+        <v>757</v>
       </c>
       <c r="C217" s="3">
-        <v>512</v>
+        <v>757</v>
       </c>
       <c r="D217" s="3">
         <v>0</v>
@@ -6402,16 +6637,16 @@
     </row>
     <row r="218" spans="1:10" ht="21">
       <c r="A218" s="5" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B218" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C218" s="3">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E218" s="4">
         <v>2017</v>
@@ -6426,16 +6661,16 @@
     </row>
     <row r="219" spans="1:10" ht="21">
       <c r="A219" s="5" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="B219" s="2">
-        <v>8280766</v>
+        <v>12265477</v>
       </c>
       <c r="C219" s="2">
-        <v>2981873</v>
+        <v>4412193</v>
       </c>
       <c r="D219" s="2">
-        <v>5298893</v>
+        <v>7853284</v>
       </c>
       <c r="E219" s="4">
         <v>2017</v>
@@ -6450,16 +6685,16 @@
     </row>
     <row r="220" spans="1:10" ht="21">
       <c r="A220" s="5" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="B220" s="2">
-        <v>6934259</v>
+        <v>10270856</v>
       </c>
       <c r="C220" s="2">
-        <v>2381203</v>
+        <v>3523986</v>
       </c>
       <c r="D220" s="2">
-        <v>4553056</v>
+        <v>6746870</v>
       </c>
       <c r="E220" s="4">
         <v>2017</v>
@@ -6474,16 +6709,16 @@
     </row>
     <row r="221" spans="1:10" ht="21">
       <c r="A221" s="5" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="B221" s="2">
-        <v>1392</v>
+        <v>2084</v>
       </c>
       <c r="C221" s="3">
-        <v>391</v>
+        <v>581</v>
       </c>
       <c r="D221" s="2">
-        <v>1000</v>
+        <v>1503</v>
       </c>
       <c r="E221" s="4">
         <v>2017</v>
@@ -6498,16 +6733,16 @@
     </row>
     <row r="222" spans="1:10" ht="21">
       <c r="A222" s="5" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="B222" s="2">
-        <v>22582</v>
+        <v>33402</v>
       </c>
       <c r="C222" s="2">
-        <v>21844</v>
-      </c>
-      <c r="D222" s="3">
-        <v>737</v>
+        <v>32309</v>
+      </c>
+      <c r="D222" s="2">
+        <v>1093</v>
       </c>
       <c r="E222" s="4">
         <v>2017</v>
@@ -6522,16 +6757,16 @@
     </row>
     <row r="223" spans="1:10" ht="21">
       <c r="A223" s="5" t="s">
-        <v>201</v>
+        <v>227</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D223" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E223" s="4">
         <v>2017</v>
@@ -6546,16 +6781,16 @@
     </row>
     <row r="224" spans="1:10" ht="21">
       <c r="A224" s="5" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E224" s="4">
         <v>2017</v>
@@ -6570,16 +6805,16 @@
     </row>
     <row r="225" spans="1:10" ht="21">
       <c r="A225" s="5" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B225" s="3">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C225" s="3">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D225" s="3">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E225" s="4">
         <v>2017</v>
@@ -6594,16 +6829,16 @@
     </row>
     <row r="226" spans="1:10" ht="21">
       <c r="A226" s="5" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="B226" s="2">
-        <v>28582</v>
+        <v>42361</v>
       </c>
       <c r="C226" s="2">
-        <v>5811</v>
+        <v>8601</v>
       </c>
       <c r="D226" s="2">
-        <v>22771</v>
+        <v>33760</v>
       </c>
       <c r="E226" s="4">
         <v>2017</v>
@@ -6618,16 +6853,16 @@
     </row>
     <row r="227" spans="1:10" ht="21">
       <c r="A227" s="5" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="B227" s="2">
-        <v>7577</v>
+        <v>11156</v>
       </c>
       <c r="C227" s="2">
-        <v>7259</v>
+        <v>10684</v>
       </c>
       <c r="D227" s="3">
-        <v>318</v>
+        <v>472</v>
       </c>
       <c r="E227" s="4">
         <v>2017</v>
@@ -6642,16 +6877,16 @@
     </row>
     <row r="228" spans="1:10" ht="21">
       <c r="A228" s="5" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="B228" s="2">
-        <v>925199</v>
+        <v>1371397</v>
       </c>
       <c r="C228" s="2">
-        <v>337965</v>
+        <v>499926</v>
       </c>
       <c r="D228" s="2">
-        <v>587234</v>
+        <v>871471</v>
       </c>
       <c r="E228" s="4">
         <v>2017</v>
@@ -6666,16 +6901,16 @@
     </row>
     <row r="229" spans="1:10" ht="21">
       <c r="A229" s="5" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B229" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="C229" s="3">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D229" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E229" s="4">
         <v>2017</v>
@@ -6690,16 +6925,16 @@
     </row>
     <row r="230" spans="1:10" ht="21">
       <c r="A230" s="5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B230" s="2">
-        <v>153485</v>
+        <v>227147</v>
       </c>
       <c r="C230" s="2">
-        <v>42173</v>
+        <v>62303</v>
       </c>
       <c r="D230" s="2">
-        <v>111312</v>
+        <v>164844</v>
       </c>
       <c r="E230" s="4">
         <v>2017</v>
@@ -6714,16 +6949,16 @@
     </row>
     <row r="231" spans="1:10" ht="21">
       <c r="A231" s="5" t="s">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="B231" s="3">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="C231" s="3">
-        <v>141</v>
+        <v>209</v>
       </c>
       <c r="D231" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E231" s="4">
         <v>2017</v>
@@ -6738,16 +6973,16 @@
     </row>
     <row r="232" spans="1:10" ht="21">
       <c r="A232" s="5" t="s">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="B232" s="2">
-        <v>23965</v>
+        <v>35461</v>
       </c>
       <c r="C232" s="2">
-        <v>5375</v>
+        <v>7932</v>
       </c>
       <c r="D232" s="2">
-        <v>18590</v>
+        <v>27530</v>
       </c>
       <c r="E232" s="4">
         <v>2017</v>
@@ -6762,16 +6997,16 @@
     </row>
     <row r="233" spans="1:10" ht="21">
       <c r="A233" s="5" t="s">
-        <v>209</v>
+        <v>237</v>
       </c>
       <c r="B233" s="2">
-        <v>2564</v>
+        <v>3797</v>
       </c>
       <c r="C233" s="2">
-        <v>2371</v>
+        <v>3510</v>
       </c>
       <c r="D233" s="3">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="E233" s="4">
         <v>2017</v>
@@ -6786,16 +7021,16 @@
     </row>
     <row r="234" spans="1:10" ht="21">
       <c r="A234" s="5" t="s">
-        <v>210</v>
+        <v>238</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D234" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E234" s="4">
         <v>2017</v>
@@ -6810,16 +7045,16 @@
     </row>
     <row r="235" spans="1:10" ht="21">
       <c r="A235" s="5" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D235" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E235" s="4">
         <v>2017</v>
@@ -6834,13 +7069,13 @@
     </row>
     <row r="236" spans="1:10" ht="21">
       <c r="A236" s="5" t="s">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="B236" s="2">
-        <v>3549</v>
+        <v>5247</v>
       </c>
       <c r="C236" s="2">
-        <v>3549</v>
+        <v>5247</v>
       </c>
       <c r="D236" s="3">
         <v>0</v>
@@ -6858,16 +7093,16 @@
     </row>
     <row r="237" spans="1:10" ht="21">
       <c r="A237" s="5" t="s">
-        <v>213</v>
+        <v>241</v>
       </c>
       <c r="B237" s="2">
-        <v>1277</v>
+        <v>1883</v>
       </c>
       <c r="C237" s="2">
-        <v>1271</v>
+        <v>1874</v>
       </c>
       <c r="D237" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E237" s="4">
         <v>2017</v>
@@ -6882,13 +7117,13 @@
     </row>
     <row r="238" spans="1:10" ht="21">
       <c r="A238" s="5" t="s">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="B238" s="2">
-        <v>3403</v>
+        <v>5037</v>
       </c>
       <c r="C238" s="2">
-        <v>3403</v>
+        <v>5037</v>
       </c>
       <c r="D238" s="3">
         <v>0</v>
@@ -6906,13 +7141,13 @@
     </row>
     <row r="239" spans="1:10" ht="21">
       <c r="A239" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B239" s="3">
-        <v>882</v>
-      </c>
-      <c r="C239" s="3">
-        <v>882</v>
+        <v>243</v>
+      </c>
+      <c r="B239" s="2">
+        <v>1306</v>
+      </c>
+      <c r="C239" s="2">
+        <v>1306</v>
       </c>
       <c r="D239" s="3">
         <v>0</v>
@@ -6930,16 +7165,16 @@
     </row>
     <row r="240" spans="1:10" ht="21">
       <c r="A240" s="5" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="B240" s="2">
-        <v>166232</v>
+        <v>245734</v>
       </c>
       <c r="C240" s="2">
-        <v>162806</v>
+        <v>240656</v>
       </c>
       <c r="D240" s="2">
-        <v>3425</v>
+        <v>5078</v>
       </c>
       <c r="E240" s="4">
         <v>2017</v>
@@ -6954,13 +7189,13 @@
     </row>
     <row r="241" spans="1:10" ht="21">
       <c r="A241" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B241" s="3">
-        <v>958</v>
-      </c>
-      <c r="C241" s="3">
-        <v>958</v>
+        <v>245</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1415</v>
+      </c>
+      <c r="C241" s="2">
+        <v>1414</v>
       </c>
       <c r="D241" s="3">
         <v>0</v>
@@ -6978,16 +7213,16 @@
     </row>
     <row r="242" spans="1:10" ht="21">
       <c r="A242" s="5" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="B242" s="2">
-        <v>4358</v>
+        <v>6452</v>
       </c>
       <c r="C242" s="2">
-        <v>4117</v>
+        <v>6094</v>
       </c>
       <c r="D242" s="3">
-        <v>241</v>
+        <v>357</v>
       </c>
       <c r="E242" s="4">
         <v>2017</v>
@@ -7002,16 +7237,16 @@
     </row>
     <row r="243" spans="1:10" ht="21">
       <c r="A243" s="5" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="B243" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C243" s="3">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D243" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E243" s="4">
         <v>2017</v>
@@ -7026,16 +7261,16 @@
     </row>
     <row r="244" spans="1:10" ht="21">
       <c r="A244" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B244" s="3">
-        <v>288</v>
+        <v>426</v>
       </c>
       <c r="C244" s="3">
-        <v>287</v>
+        <v>424</v>
       </c>
       <c r="D244" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E244" s="4">
         <v>2017</v>
@@ -7050,16 +7285,16 @@
     </row>
     <row r="245" spans="1:10" ht="21">
       <c r="A245" s="5" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="B245" s="2">
-        <v>12885</v>
+        <v>19136</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D245" s="2">
-        <v>12885</v>
+        <v>19136</v>
       </c>
       <c r="E245" s="4">
         <v>2017</v>
